--- a/The Web.xlsx
+++ b/The Web.xlsx
@@ -11,15 +11,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="46">
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>group_from</t>
+  </si>
+  <si>
+    <t>group_to</t>
   </si>
   <si>
     <t xml:space="preserve">Lizzie Stansfield </t>
@@ -31,32 +37,141 @@
     <t>slept_with</t>
   </si>
   <si>
+    <t>euoc</t>
+  </si>
+  <si>
     <t>Oscar Shepherd</t>
   </si>
   <si>
     <t>dated</t>
   </si>
   <si>
-    <t xml:space="preserve">Ben Jiggle </t>
+    <t xml:space="preserve">Alistair Thomas </t>
   </si>
   <si>
     <t>pulled</t>
   </si>
   <si>
-    <t>Sam Griffin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chloe Cracknell </t>
+    <t>Joe Hudd</t>
+  </si>
+  <si>
+    <t>Boyan Ivandjikov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alex Weatheril </t>
+  </si>
+  <si>
+    <t>Jim Bailey</t>
+  </si>
+  <si>
+    <t>Louis Morris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucy Haines </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sarah Calvert </t>
+  </si>
+  <si>
+    <t>hh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imogen Pieters </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pippa Carcas </t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jess Ensoll </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lizzie Horsler </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geogia Leadingham </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nea Shingler </t>
+  </si>
+  <si>
+    <t>Louise Adams</t>
+  </si>
+  <si>
+    <t>Izzy Cox</t>
+  </si>
+  <si>
+    <t>Jamie Goddard</t>
+  </si>
+  <si>
+    <t>Daisy McNamara</t>
+  </si>
+  <si>
+    <t>David Bunn</t>
+  </si>
+  <si>
+    <t>Alice Goodall</t>
+  </si>
+  <si>
+    <t>Grace Pow</t>
+  </si>
+  <si>
+    <t>Niamh Carr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Louis Morris </t>
+  </si>
+  <si>
+    <t>Lizzie Horsler</t>
+  </si>
+  <si>
+    <t>Chloe Cracknell</t>
+  </si>
+  <si>
+    <t>Alex Carcas</t>
+  </si>
+  <si>
+    <t>Sarah Calvert</t>
+  </si>
+  <si>
+    <t>Frank Townley</t>
+  </si>
+  <si>
+    <t>Finn Lydon</t>
+  </si>
+  <si>
+    <t>Felix Wilson</t>
+  </si>
+  <si>
+    <t>Niamh Hunter</t>
+  </si>
+  <si>
+    <t>Rachael Collins</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.0"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -75,7 +190,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -90,14 +205,38 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00550F"/>
+        <bgColor rgb="FF00550F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF35454"/>
         <bgColor rgb="FFF35454"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF2CC054"/>
         <bgColor rgb="FF2CC054"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3D8B1F"/>
+        <bgColor rgb="FF3D8B1F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD46B00"/>
+        <bgColor rgb="FFD46B00"/>
       </patternFill>
     </fill>
   </fills>
@@ -107,26 +246,44 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -339,16 +496,22 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.0"/>
+    <col customWidth="1" min="1" max="1" width="18.38"/>
     <col customWidth="1" min="2" max="2" width="19.0"/>
-    <col customWidth="1" min="3" max="6" width="12.63"/>
+    <col customWidth="1" min="3" max="3" width="13.38"/>
+    <col customWidth="1" min="4" max="4" width="17.75"/>
+    <col customWidth="1" min="5" max="5" width="15.25"/>
+    <col customWidth="1" min="6" max="6" width="12.63"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" ht="24.0" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -358,113 +521,792 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="2" t="s">
+      <c r="D10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="D16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="2" t="s">
+      <c r="C17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="12"/>
+      <c r="E34" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C37" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="2"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="2"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1"/>
-    <row r="11" ht="15.75" customHeight="1"/>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
-    <row r="17" ht="15.75" customHeight="1"/>
-    <row r="18" ht="15.75" customHeight="1"/>
-    <row r="19" ht="15.75" customHeight="1"/>
-    <row r="20" ht="15.75" customHeight="1"/>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
+      <c r="C45" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="52" ht="15.75" customHeight="1"/>
     <row r="53" ht="15.75" customHeight="1"/>
     <row r="54" ht="15.75" customHeight="1"/>

--- a/The Web.xlsx
+++ b/The Web.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="165">
   <si>
     <t>from</t>
   </si>
@@ -235,7 +235,7 @@
     <t>Vadimir</t>
   </si>
   <si>
-    <t xml:space="preserve">Toby Cazzolato </t>
+    <t>Toby Cazzolato</t>
   </si>
   <si>
     <t>Liam Edwards</t>
@@ -428,9 +428,6 @@
   </si>
   <si>
     <t>Ella Revitt</t>
-  </si>
-  <si>
-    <t>Toby Caz</t>
   </si>
   <si>
     <t>Maya Miler</t>
@@ -3916,10 +3913,10 @@
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B179" s="8" t="s">
         <v>139</v>
-      </c>
-      <c r="B179" s="8" t="s">
-        <v>140</v>
       </c>
       <c r="C179" s="7" t="s">
         <v>12</v>
@@ -3950,7 +3947,7 @@
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B181" s="8" t="s">
         <v>75</v>
@@ -3967,7 +3964,7 @@
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B182" s="8" t="s">
         <v>15</v>
@@ -3984,7 +3981,7 @@
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B183" s="8" t="s">
         <v>106</v>
@@ -4021,7 +4018,7 @@
         <v>72</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C185" s="6" t="s">
         <v>10</v>
@@ -4086,7 +4083,7 @@
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B189" s="8" t="s">
         <v>5</v>
@@ -4103,10 +4100,10 @@
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B190" s="8" t="s">
         <v>143</v>
-      </c>
-      <c r="B190" s="8" t="s">
-        <v>144</v>
       </c>
       <c r="C190" s="4" t="s">
         <v>7</v>
@@ -4123,7 +4120,7 @@
         <v>93</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C191" s="7" t="s">
         <v>12</v>
@@ -4137,7 +4134,7 @@
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B192" s="8" t="s">
         <v>63</v>
@@ -4154,7 +4151,7 @@
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B193" s="8" t="s">
         <v>18</v>
@@ -4171,10 +4168,10 @@
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B194" s="8" t="s">
         <v>146</v>
-      </c>
-      <c r="B194" s="8" t="s">
-        <v>147</v>
       </c>
       <c r="C194" s="6" t="s">
         <v>10</v>
@@ -4191,7 +4188,7 @@
         <v>44</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C195" s="6" t="s">
         <v>10</v>
@@ -4225,7 +4222,7 @@
         <v>35</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C197" s="6" t="s">
         <v>10</v>
@@ -4242,7 +4239,7 @@
         <v>57</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C198" s="7" t="s">
         <v>12</v>
@@ -4276,7 +4273,7 @@
         <v>34</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C200" s="6" t="s">
         <v>10</v>
@@ -4290,10 +4287,10 @@
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C201" s="6" t="s">
         <v>10</v>
@@ -4324,10 +4321,10 @@
     </row>
     <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B203" s="8" t="s">
         <v>151</v>
-      </c>
-      <c r="B203" s="8" t="s">
-        <v>152</v>
       </c>
       <c r="C203" s="6" t="s">
         <v>10</v>
@@ -4341,10 +4338,10 @@
     </row>
     <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B204" s="8" t="s">
         <v>153</v>
-      </c>
-      <c r="B204" s="8" t="s">
-        <v>154</v>
       </c>
       <c r="C204" s="7" t="s">
         <v>12</v>
@@ -4409,7 +4406,7 @@
     </row>
     <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B208" s="8" t="s">
         <v>84</v>
@@ -4463,7 +4460,7 @@
         <v>92</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C211" s="6" t="s">
         <v>10</v>
@@ -4486,7 +4483,7 @@
         <v>12</v>
       </c>
       <c r="D212" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E212" s="5" t="s">
         <v>8</v>
@@ -4494,10 +4491,10 @@
     </row>
     <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B213" s="8" t="s">
         <v>158</v>
-      </c>
-      <c r="B213" s="8" t="s">
-        <v>159</v>
       </c>
       <c r="C213" s="7" t="s">
         <v>12</v>
@@ -4511,13 +4508,13 @@
     </row>
     <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B214" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C214" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D214" s="5" t="s">
         <v>8</v>
@@ -4528,7 +4525,7 @@
     </row>
     <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B215" s="8" t="s">
         <v>88</v>
@@ -4548,10 +4545,10 @@
         <v>131</v>
       </c>
       <c r="B216" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C216" s="13" t="s">
         <v>162</v>
-      </c>
-      <c r="C216" s="13" t="s">
-        <v>163</v>
       </c>
       <c r="D216" s="9" t="s">
         <v>20</v>
@@ -4562,10 +4559,10 @@
     </row>
     <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C217" s="7" t="s">
         <v>12</v>
@@ -4579,10 +4576,10 @@
     </row>
     <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B218" s="8" t="s">
         <v>164</v>
-      </c>
-      <c r="B218" s="8" t="s">
-        <v>165</v>
       </c>
       <c r="C218" s="4" t="s">
         <v>7</v>

--- a/The Web.xlsx
+++ b/The Web.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="164">
   <si>
     <t>from</t>
   </si>
@@ -343,55 +343,52 @@
     <t>Rosie Spencer</t>
   </si>
   <si>
+    <t>Rimicans</t>
+  </si>
+  <si>
+    <t>CITPA</t>
+  </si>
+  <si>
+    <t>Alice Wilson</t>
+  </si>
+  <si>
+    <t>Louis McMillan</t>
+  </si>
+  <si>
+    <t>Iris McMillan</t>
+  </si>
+  <si>
+    <t>Surface News</t>
+  </si>
+  <si>
+    <t>Amelie Dryer</t>
+  </si>
+  <si>
+    <t>Saskia Chaplin</t>
+  </si>
+  <si>
+    <t>Fredie Fearn</t>
+  </si>
+  <si>
+    <t>Finlay RD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finlay RD </t>
+  </si>
+  <si>
+    <t>Charity Tweaks</t>
+  </si>
+  <si>
     <t>Gay Barber</t>
   </si>
   <si>
-    <t>Rimicans</t>
-  </si>
-  <si>
-    <t>CITPA</t>
-  </si>
-  <si>
-    <t>Peter Molloy</t>
-  </si>
-  <si>
-    <t>Alice Wilson</t>
-  </si>
-  <si>
-    <t>Louis McMillan</t>
-  </si>
-  <si>
-    <t>Iris McMillan</t>
-  </si>
-  <si>
-    <t>Surface News</t>
-  </si>
-  <si>
-    <t>Amelie Dryer</t>
-  </si>
-  <si>
-    <t>Saskia Chaplin</t>
-  </si>
-  <si>
-    <t>Fredie Fearn</t>
-  </si>
-  <si>
-    <t>Finlay RD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finlay RD </t>
-  </si>
-  <si>
-    <t>Charity Tweaks</t>
-  </si>
-  <si>
     <t>Stan Heap</t>
   </si>
   <si>
     <t>Alisson Bell</t>
   </si>
   <si>
-    <t>Hog Barrie</t>
+    <t>Waltuh Hog Barrie</t>
   </si>
   <si>
     <t>Emma Crawford</t>
@@ -3355,7 +3352,7 @@
         <v>109</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="C146" s="7" t="s">
         <v>12</v>
@@ -3372,7 +3369,7 @@
         <v>109</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C147" s="7" t="s">
         <v>12</v>
@@ -3406,7 +3403,7 @@
         <v>32</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>10</v>
@@ -3420,10 +3417,10 @@
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="8" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C150" s="7" t="s">
         <v>12</v>
@@ -3437,10 +3434,10 @@
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C151" s="7" t="s">
         <v>12</v>
@@ -3457,7 +3454,7 @@
         <v>99</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C152" s="6" t="s">
         <v>10</v>
@@ -3505,10 +3502,10 @@
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C155" s="6" t="s">
         <v>10</v>
@@ -3522,10 +3519,10 @@
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C156" s="6" t="s">
         <v>10</v>
@@ -3539,10 +3536,10 @@
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B157" s="8" t="s">
         <v>119</v>
-      </c>
-      <c r="B157" s="8" t="s">
-        <v>121</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>12</v>
@@ -3556,7 +3553,7 @@
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B158" s="8" t="s">
         <v>103</v>
@@ -3573,10 +3570,10 @@
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C159" s="7" t="s">
         <v>12</v>
@@ -3590,7 +3587,7 @@
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B160" s="8" t="s">
         <v>6</v>
@@ -3607,10 +3604,10 @@
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="8" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C161" s="7" t="s">
         <v>12</v>
@@ -3624,10 +3621,10 @@
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C162" s="7" t="s">
         <v>12</v>
@@ -3641,10 +3638,10 @@
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B163" s="8" t="s">
         <v>126</v>
-      </c>
-      <c r="B163" s="8" t="s">
-        <v>127</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>10</v>
@@ -3678,7 +3675,7 @@
         <v>39</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C165" s="7" t="s">
         <v>12</v>
@@ -3712,7 +3709,7 @@
         <v>39</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C167" s="7" t="s">
         <v>12</v>
@@ -3726,10 +3723,10 @@
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B168" s="8" t="s">
         <v>129</v>
-      </c>
-      <c r="B168" s="8" t="s">
-        <v>130</v>
       </c>
       <c r="C168" s="6" t="s">
         <v>10</v>
@@ -3743,10 +3740,10 @@
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C169" s="6" t="s">
         <v>10</v>
@@ -3760,7 +3757,7 @@
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B170" s="8" t="s">
         <v>93</v>
@@ -3777,10 +3774,10 @@
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B171" s="8" t="s">
         <v>131</v>
-      </c>
-      <c r="B171" s="8" t="s">
-        <v>132</v>
       </c>
       <c r="C171" s="7" t="s">
         <v>12</v>
@@ -3797,7 +3794,7 @@
         <v>50</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C172" s="6" t="s">
         <v>10</v>
@@ -3814,7 +3811,7 @@
         <v>9</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C173" s="7" t="s">
         <v>12</v>
@@ -3831,7 +3828,7 @@
         <v>24</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C174" s="7" t="s">
         <v>12</v>
@@ -3848,7 +3845,7 @@
         <v>24</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C175" s="7" t="s">
         <v>12</v>
@@ -3865,7 +3862,7 @@
         <v>106</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C176" s="4" t="s">
         <v>7</v>
@@ -3882,7 +3879,7 @@
         <v>87</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C177" s="7" t="s">
         <v>12</v>
@@ -3896,10 +3893,10 @@
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C178" s="6" t="s">
         <v>10</v>
@@ -3916,7 +3913,7 @@
         <v>74</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C179" s="7" t="s">
         <v>12</v>
@@ -3947,7 +3944,7 @@
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B181" s="8" t="s">
         <v>75</v>
@@ -3964,7 +3961,7 @@
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B182" s="8" t="s">
         <v>15</v>
@@ -3981,7 +3978,7 @@
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B183" s="8" t="s">
         <v>106</v>
@@ -4018,7 +4015,7 @@
         <v>72</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C185" s="6" t="s">
         <v>10</v>
@@ -4083,7 +4080,7 @@
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B189" s="8" t="s">
         <v>5</v>
@@ -4100,10 +4097,10 @@
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B190" s="8" t="s">
         <v>142</v>
-      </c>
-      <c r="B190" s="8" t="s">
-        <v>143</v>
       </c>
       <c r="C190" s="4" t="s">
         <v>7</v>
@@ -4120,7 +4117,7 @@
         <v>93</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C191" s="7" t="s">
         <v>12</v>
@@ -4134,7 +4131,7 @@
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B192" s="8" t="s">
         <v>63</v>
@@ -4151,7 +4148,7 @@
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B193" s="8" t="s">
         <v>18</v>
@@ -4168,10 +4165,10 @@
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B194" s="8" t="s">
         <v>145</v>
-      </c>
-      <c r="B194" s="8" t="s">
-        <v>146</v>
       </c>
       <c r="C194" s="6" t="s">
         <v>10</v>
@@ -4188,7 +4185,7 @@
         <v>44</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C195" s="6" t="s">
         <v>10</v>
@@ -4222,7 +4219,7 @@
         <v>35</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C197" s="6" t="s">
         <v>10</v>
@@ -4239,7 +4236,7 @@
         <v>57</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C198" s="7" t="s">
         <v>12</v>
@@ -4273,7 +4270,7 @@
         <v>34</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C200" s="6" t="s">
         <v>10</v>
@@ -4287,10 +4284,10 @@
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C201" s="6" t="s">
         <v>10</v>
@@ -4321,10 +4318,10 @@
     </row>
     <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B203" s="8" t="s">
         <v>150</v>
-      </c>
-      <c r="B203" s="8" t="s">
-        <v>151</v>
       </c>
       <c r="C203" s="6" t="s">
         <v>10</v>
@@ -4338,10 +4335,10 @@
     </row>
     <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B204" s="8" t="s">
         <v>152</v>
-      </c>
-      <c r="B204" s="8" t="s">
-        <v>153</v>
       </c>
       <c r="C204" s="7" t="s">
         <v>12</v>
@@ -4389,7 +4386,7 @@
     </row>
     <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B207" s="8" t="s">
         <v>84</v>
@@ -4406,7 +4403,7 @@
     </row>
     <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B208" s="8" t="s">
         <v>84</v>
@@ -4440,7 +4437,7 @@
     </row>
     <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="8" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="B210" s="8" t="s">
         <v>84</v>
@@ -4460,7 +4457,7 @@
         <v>92</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C211" s="6" t="s">
         <v>10</v>
@@ -4483,7 +4480,7 @@
         <v>12</v>
       </c>
       <c r="D212" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E212" s="5" t="s">
         <v>8</v>
@@ -4491,10 +4488,10 @@
     </row>
     <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B213" s="8" t="s">
         <v>157</v>
-      </c>
-      <c r="B213" s="8" t="s">
-        <v>158</v>
       </c>
       <c r="C213" s="7" t="s">
         <v>12</v>
@@ -4508,13 +4505,13 @@
     </row>
     <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B214" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C214" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D214" s="5" t="s">
         <v>8</v>
@@ -4525,7 +4522,7 @@
     </row>
     <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B215" s="8" t="s">
         <v>88</v>
@@ -4542,13 +4539,13 @@
     </row>
     <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B216" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C216" s="13" t="s">
         <v>161</v>
-      </c>
-      <c r="C216" s="13" t="s">
-        <v>162</v>
       </c>
       <c r="D216" s="9" t="s">
         <v>20</v>
@@ -4559,10 +4556,10 @@
     </row>
     <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C217" s="7" t="s">
         <v>12</v>
@@ -4576,10 +4573,10 @@
     </row>
     <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B218" s="8" t="s">
         <v>163</v>
-      </c>
-      <c r="B218" s="8" t="s">
-        <v>164</v>
       </c>
       <c r="C218" s="4" t="s">
         <v>7</v>

--- a/The Web.xlsx
+++ b/The Web.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="162">
   <si>
     <t>from</t>
   </si>
@@ -160,7 +160,7 @@
     <t>Holly Stodgell</t>
   </si>
   <si>
-    <t>Alison Bell</t>
+    <t>Alisson Bell</t>
   </si>
   <si>
     <t>Emma Halliwell</t>
@@ -190,7 +190,7 @@
     <t>Eddie Narbett</t>
   </si>
   <si>
-    <t>Sasha Cheplin</t>
+    <t>Sasha Chepelin</t>
   </si>
   <si>
     <t>Freddie Carcas</t>
@@ -352,9 +352,6 @@
     <t>Alice Wilson</t>
   </si>
   <si>
-    <t>Louis McMillan</t>
-  </si>
-  <si>
     <t>Iris McMillan</t>
   </si>
   <si>
@@ -379,15 +376,9 @@
     <t>Charity Tweaks</t>
   </si>
   <si>
-    <t>Gay Barber</t>
-  </si>
-  <si>
     <t>Stan Heap</t>
   </si>
   <si>
-    <t>Alisson Bell</t>
-  </si>
-  <si>
     <t>Waltuh Hog Barrie</t>
   </si>
   <si>
@@ -445,9 +436,6 @@
     <t>Finlay Todd</t>
   </si>
   <si>
-    <t>Sasha Chepelin</t>
-  </si>
-  <si>
     <t>Jura McMillan</t>
   </si>
   <si>
@@ -503,6 +491,12 @@
   </si>
   <si>
     <t>Heidi Robertshaw</t>
+  </si>
+  <si>
+    <t>Maja Thomson</t>
+  </si>
+  <si>
+    <t>Euan Patton</t>
   </si>
 </sst>
 </file>
@@ -3434,7 +3428,7 @@
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="8" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="B151" s="8" t="s">
         <v>112</v>
@@ -3454,7 +3448,7 @@
         <v>99</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C152" s="6" t="s">
         <v>10</v>
@@ -3502,10 +3496,10 @@
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B155" s="8" t="s">
         <v>115</v>
-      </c>
-      <c r="B155" s="8" t="s">
-        <v>116</v>
       </c>
       <c r="C155" s="6" t="s">
         <v>10</v>
@@ -3519,10 +3513,10 @@
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B156" s="8" t="s">
         <v>117</v>
-      </c>
-      <c r="B156" s="8" t="s">
-        <v>118</v>
       </c>
       <c r="C156" s="6" t="s">
         <v>10</v>
@@ -3536,10 +3530,10 @@
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>12</v>
@@ -3553,7 +3547,7 @@
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B158" s="8" t="s">
         <v>103</v>
@@ -3570,10 +3564,10 @@
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B159" s="8" t="s">
         <v>120</v>
-      </c>
-      <c r="B159" s="8" t="s">
-        <v>121</v>
       </c>
       <c r="C159" s="7" t="s">
         <v>12</v>
@@ -3587,7 +3581,7 @@
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B160" s="8" t="s">
         <v>6</v>
@@ -3604,10 +3598,10 @@
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="8" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C161" s="7" t="s">
         <v>12</v>
@@ -3621,10 +3615,10 @@
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="8" t="s">
-        <v>124</v>
+        <v>49</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C162" s="7" t="s">
         <v>12</v>
@@ -3638,10 +3632,10 @@
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>10</v>
@@ -3675,7 +3669,7 @@
         <v>39</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C165" s="7" t="s">
         <v>12</v>
@@ -3709,7 +3703,7 @@
         <v>39</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C167" s="7" t="s">
         <v>12</v>
@@ -3723,10 +3717,10 @@
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C168" s="6" t="s">
         <v>10</v>
@@ -3740,10 +3734,10 @@
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C169" s="6" t="s">
         <v>10</v>
@@ -3757,7 +3751,7 @@
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B170" s="8" t="s">
         <v>93</v>
@@ -3774,10 +3768,10 @@
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C171" s="7" t="s">
         <v>12</v>
@@ -3794,7 +3788,7 @@
         <v>50</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C172" s="6" t="s">
         <v>10</v>
@@ -3811,7 +3805,7 @@
         <v>9</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C173" s="7" t="s">
         <v>12</v>
@@ -3828,7 +3822,7 @@
         <v>24</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C174" s="7" t="s">
         <v>12</v>
@@ -3845,7 +3839,7 @@
         <v>24</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C175" s="7" t="s">
         <v>12</v>
@@ -3862,7 +3856,7 @@
         <v>106</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C176" s="4" t="s">
         <v>7</v>
@@ -3879,7 +3873,7 @@
         <v>87</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C177" s="7" t="s">
         <v>12</v>
@@ -3893,10 +3887,10 @@
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C178" s="6" t="s">
         <v>10</v>
@@ -3913,7 +3907,7 @@
         <v>74</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C179" s="7" t="s">
         <v>12</v>
@@ -3944,7 +3938,7 @@
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B181" s="8" t="s">
         <v>75</v>
@@ -3961,7 +3955,7 @@
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B182" s="8" t="s">
         <v>15</v>
@@ -3978,7 +3972,7 @@
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B183" s="8" t="s">
         <v>106</v>
@@ -4015,7 +4009,7 @@
         <v>72</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C185" s="6" t="s">
         <v>10</v>
@@ -4080,7 +4074,7 @@
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B189" s="8" t="s">
         <v>5</v>
@@ -4097,10 +4091,10 @@
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C190" s="4" t="s">
         <v>7</v>
@@ -4117,7 +4111,7 @@
         <v>93</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C191" s="7" t="s">
         <v>12</v>
@@ -4131,7 +4125,7 @@
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B192" s="8" t="s">
         <v>63</v>
@@ -4148,7 +4142,7 @@
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B193" s="8" t="s">
         <v>18</v>
@@ -4165,10 +4159,10 @@
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="8" t="s">
-        <v>144</v>
+        <v>59</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C194" s="6" t="s">
         <v>10</v>
@@ -4185,7 +4179,7 @@
         <v>44</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C195" s="6" t="s">
         <v>10</v>
@@ -4219,7 +4213,7 @@
         <v>35</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C197" s="6" t="s">
         <v>10</v>
@@ -4236,7 +4230,7 @@
         <v>57</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C198" s="7" t="s">
         <v>12</v>
@@ -4270,7 +4264,7 @@
         <v>34</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C200" s="6" t="s">
         <v>10</v>
@@ -4284,10 +4278,10 @@
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C201" s="6" t="s">
         <v>10</v>
@@ -4318,10 +4312,10 @@
     </row>
     <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="8" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C203" s="6" t="s">
         <v>10</v>
@@ -4335,10 +4329,10 @@
     </row>
     <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="8" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C204" s="7" t="s">
         <v>12</v>
@@ -4386,7 +4380,7 @@
     </row>
     <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B207" s="8" t="s">
         <v>84</v>
@@ -4403,7 +4397,7 @@
     </row>
     <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B208" s="8" t="s">
         <v>84</v>
@@ -4457,7 +4451,7 @@
         <v>92</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C211" s="6" t="s">
         <v>10</v>
@@ -4480,7 +4474,7 @@
         <v>12</v>
       </c>
       <c r="D212" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E212" s="5" t="s">
         <v>8</v>
@@ -4488,10 +4482,10 @@
     </row>
     <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C213" s="7" t="s">
         <v>12</v>
@@ -4505,13 +4499,13 @@
     </row>
     <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B214" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C214" s="11" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D214" s="5" t="s">
         <v>8</v>
@@ -4522,7 +4516,7 @@
     </row>
     <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="8" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B215" s="8" t="s">
         <v>88</v>
@@ -4539,13 +4533,13 @@
     </row>
     <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C216" s="13" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D216" s="9" t="s">
         <v>20</v>
@@ -4556,10 +4550,10 @@
     </row>
     <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="8" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C217" s="7" t="s">
         <v>12</v>
@@ -4573,10 +4567,10 @@
     </row>
     <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="8" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C218" s="4" t="s">
         <v>7</v>
@@ -4588,8 +4582,40 @@
         <v>20</v>
       </c>
     </row>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1">
+      <c r="A219" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B219" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C219" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D219" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E219" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="220" ht="15.75" customHeight="1">
+      <c r="A220" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B220" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D220" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E220" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>
     <row r="223" ht="15.75" customHeight="1"/>

--- a/The Web.xlsx
+++ b/The Web.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\TheWeb\The-Web\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911D6919-6612-42C8-8EE9-961A27A7126D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="164">
   <si>
     <t>from</t>
   </si>
@@ -497,53 +506,76 @@
   </si>
   <si>
     <t>Euan Patton</t>
+  </si>
+  <si>
+    <t>Ross Brown</t>
+  </si>
+  <si>
+    <t>rugby</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15.0"/>
+      <sz val="15"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="15.0"/>
+      <sz val="15"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -599,70 +631,61 @@
         <bgColor theme="8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor rgb="FF3D8B1F"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -852,31 +875,34 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E1016"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E224" sqref="E224"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.38"/>
-    <col customWidth="1" min="2" max="2" width="19.0"/>
-    <col customWidth="1" min="3" max="3" width="13.38"/>
-    <col customWidth="1" min="4" max="4" width="17.75"/>
-    <col customWidth="1" min="5" max="5" width="15.25"/>
-    <col customWidth="1" min="6" max="6" width="12.63"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.0" customHeight="1">
+    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -893,7 +919,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -910,7 +936,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -927,7 +953,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -944,7 +970,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -961,7 +987,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -978,7 +1004,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -995,7 +1021,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1012,7 +1038,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -1029,7 +1055,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>6</v>
       </c>
@@ -1046,7 +1072,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>6</v>
       </c>
@@ -1063,7 +1089,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>6</v>
       </c>
@@ -1080,7 +1106,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>6</v>
       </c>
@@ -1097,7 +1123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>6</v>
       </c>
@@ -1114,7 +1140,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>24</v>
       </c>
@@ -1131,7 +1157,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>6</v>
       </c>
@@ -1148,7 +1174,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>16</v>
       </c>
@@ -1165,7 +1191,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>16</v>
       </c>
@@ -1182,7 +1208,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>16</v>
       </c>
@@ -1199,7 +1225,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>16</v>
       </c>
@@ -1216,7 +1242,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>16</v>
       </c>
@@ -1233,7 +1259,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>31</v>
       </c>
@@ -1250,7 +1276,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>33</v>
       </c>
@@ -1267,7 +1293,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>33</v>
       </c>
@@ -1284,7 +1310,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>33</v>
       </c>
@@ -1301,7 +1327,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>33</v>
       </c>
@@ -1318,7 +1344,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>33</v>
       </c>
@@ -1335,7 +1361,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>37</v>
       </c>
@@ -1352,7 +1378,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>37</v>
       </c>
@@ -1369,7 +1395,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>37</v>
       </c>
@@ -1386,7 +1412,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>37</v>
       </c>
@@ -1403,7 +1429,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>37</v>
       </c>
@@ -1420,7 +1446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>14</v>
       </c>
@@ -1437,7 +1463,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>14</v>
       </c>
@@ -1454,7 +1480,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>14</v>
       </c>
@@ -1471,7 +1497,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>14</v>
       </c>
@@ -1488,7 +1514,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>38</v>
       </c>
@@ -1505,7 +1531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>38</v>
       </c>
@@ -1522,7 +1548,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>13</v>
       </c>
@@ -1539,7 +1565,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>13</v>
       </c>
@@ -1556,7 +1582,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>13</v>
       </c>
@@ -1573,7 +1599,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
         <v>13</v>
       </c>
@@ -1590,7 +1616,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>13</v>
       </c>
@@ -1607,7 +1633,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
         <v>29</v>
       </c>
@@ -1624,7 +1650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
         <v>29</v>
       </c>
@@ -1641,7 +1667,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>41</v>
       </c>
@@ -1658,7 +1684,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
         <v>41</v>
       </c>
@@ -1675,7 +1701,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
         <v>41</v>
       </c>
@@ -1692,7 +1718,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>41</v>
       </c>
@@ -1709,7 +1735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
         <v>42</v>
       </c>
@@ -1726,7 +1752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
         <v>42</v>
       </c>
@@ -1743,7 +1769,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
         <v>42</v>
       </c>
@@ -1760,7 +1786,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>42</v>
       </c>
@@ -1777,7 +1803,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
         <v>9</v>
       </c>
@@ -1794,7 +1820,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
         <v>9</v>
       </c>
@@ -1811,7 +1837,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
         <v>9</v>
       </c>
@@ -1828,7 +1854,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
         <v>52</v>
       </c>
@@ -1845,7 +1871,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
         <v>52</v>
       </c>
@@ -1862,7 +1888,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
         <v>52</v>
       </c>
@@ -1879,7 +1905,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
         <v>42</v>
       </c>
@@ -1896,7 +1922,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
         <v>42</v>
       </c>
@@ -1913,7 +1939,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
         <v>55</v>
       </c>
@@ -1930,7 +1956,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
         <v>57</v>
       </c>
@@ -1947,7 +1973,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
         <v>57</v>
       </c>
@@ -1964,7 +1990,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
         <v>57</v>
       </c>
@@ -1981,7 +2007,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
         <v>57</v>
       </c>
@@ -1998,7 +2024,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
         <v>61</v>
       </c>
@@ -2015,7 +2041,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
         <v>61</v>
       </c>
@@ -2032,7 +2058,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
         <v>61</v>
       </c>
@@ -2049,7 +2075,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
         <v>61</v>
       </c>
@@ -2066,7 +2092,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
         <v>58</v>
       </c>
@@ -2083,7 +2109,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
         <v>58</v>
       </c>
@@ -2100,7 +2126,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
         <v>62</v>
       </c>
@@ -2117,7 +2143,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
         <v>62</v>
       </c>
@@ -2134,7 +2160,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
         <v>62</v>
       </c>
@@ -2151,7 +2177,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
         <v>64</v>
       </c>
@@ -2168,7 +2194,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
         <v>64</v>
       </c>
@@ -2185,7 +2211,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
         <v>6</v>
       </c>
@@ -2202,7 +2228,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
         <v>6</v>
       </c>
@@ -2219,7 +2245,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
         <v>70</v>
       </c>
@@ -2236,7 +2262,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
         <v>70</v>
       </c>
@@ -2253,7 +2279,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
         <v>70</v>
       </c>
@@ -2270,7 +2296,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
         <v>70</v>
       </c>
@@ -2287,7 +2313,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
         <v>70</v>
       </c>
@@ -2304,7 +2330,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
         <v>70</v>
       </c>
@@ -2321,7 +2347,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
         <v>70</v>
       </c>
@@ -2338,7 +2364,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="8" t="s">
         <v>78</v>
       </c>
@@ -2355,7 +2381,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="8" t="s">
         <v>78</v>
       </c>
@@ -2372,7 +2398,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
         <v>78</v>
       </c>
@@ -2389,7 +2415,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="8" t="s">
         <v>78</v>
       </c>
@@ -2406,7 +2432,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="8" t="s">
         <v>78</v>
       </c>
@@ -2423,7 +2449,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
         <v>78</v>
       </c>
@@ -2440,7 +2466,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="8" t="s">
         <v>83</v>
       </c>
@@ -2457,7 +2483,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
         <v>83</v>
       </c>
@@ -2474,7 +2500,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="8" t="s">
         <v>83</v>
       </c>
@@ -2491,7 +2517,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="8" t="s">
         <v>83</v>
       </c>
@@ -2508,7 +2534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="8" t="s">
         <v>83</v>
       </c>
@@ -2525,7 +2551,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="8" t="s">
         <v>83</v>
       </c>
@@ -2542,7 +2568,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="8" t="s">
         <v>83</v>
       </c>
@@ -2559,7 +2585,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="8" t="s">
         <v>83</v>
       </c>
@@ -2576,7 +2602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="8" t="s">
         <v>88</v>
       </c>
@@ -2593,7 +2619,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="8" t="s">
         <v>88</v>
       </c>
@@ -2610,7 +2636,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="8" t="s">
         <v>88</v>
       </c>
@@ -2627,7 +2653,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
         <v>91</v>
       </c>
@@ -2644,7 +2670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="8" t="s">
         <v>88</v>
       </c>
@@ -2661,7 +2687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
         <v>88</v>
       </c>
@@ -2678,7 +2704,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="8" t="s">
         <v>88</v>
       </c>
@@ -2695,7 +2721,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="8" t="s">
         <v>46</v>
       </c>
@@ -2712,7 +2738,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="8" t="s">
         <v>46</v>
       </c>
@@ -2729,7 +2755,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="8" t="s">
         <v>46</v>
       </c>
@@ -2746,7 +2772,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="8" t="s">
         <v>46</v>
       </c>
@@ -2763,7 +2789,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="8" t="s">
         <v>46</v>
       </c>
@@ -2780,7 +2806,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="8" t="s">
         <v>46</v>
       </c>
@@ -2797,7 +2823,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="8" t="s">
         <v>46</v>
       </c>
@@ -2814,7 +2840,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="8" t="s">
         <v>94</v>
       </c>
@@ -2831,7 +2857,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="8" t="s">
         <v>94</v>
       </c>
@@ -2848,7 +2874,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="8" t="s">
         <v>94</v>
       </c>
@@ -2865,7 +2891,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="8" t="s">
         <v>94</v>
       </c>
@@ -2882,7 +2908,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="8" t="s">
         <v>94</v>
       </c>
@@ -2899,7 +2925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="8" t="s">
         <v>43</v>
       </c>
@@ -2916,7 +2942,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="8" t="s">
         <v>43</v>
       </c>
@@ -2933,7 +2959,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="8" t="s">
         <v>43</v>
       </c>
@@ -2950,7 +2976,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="8" t="s">
         <v>43</v>
       </c>
@@ -2967,7 +2993,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="8" t="s">
         <v>43</v>
       </c>
@@ -2984,7 +3010,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="8" t="s">
         <v>97</v>
       </c>
@@ -3001,7 +3027,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="8" t="s">
         <v>97</v>
       </c>
@@ -3018,7 +3044,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="8" t="s">
         <v>97</v>
       </c>
@@ -3035,7 +3061,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="8" t="s">
         <v>97</v>
       </c>
@@ -3052,7 +3078,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="8" t="s">
         <v>97</v>
       </c>
@@ -3069,7 +3095,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="8" t="s">
         <v>97</v>
       </c>
@@ -3086,7 +3112,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="8" t="s">
         <v>101</v>
       </c>
@@ -3103,7 +3129,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="8" t="s">
         <v>101</v>
       </c>
@@ -3120,7 +3146,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="8" t="s">
         <v>101</v>
       </c>
@@ -3137,7 +3163,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="8" t="s">
         <v>101</v>
       </c>
@@ -3154,7 +3180,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="8" t="s">
         <v>101</v>
       </c>
@@ -3171,7 +3197,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="8" t="s">
         <v>105</v>
       </c>
@@ -3188,7 +3214,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="8" t="s">
         <v>105</v>
       </c>
@@ -3205,7 +3231,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="8" t="s">
         <v>105</v>
       </c>
@@ -3222,7 +3248,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="8" t="s">
         <v>105</v>
       </c>
@@ -3239,7 +3265,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="8" t="s">
         <v>105</v>
       </c>
@@ -3256,7 +3282,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="8" t="s">
         <v>11</v>
       </c>
@@ -3273,7 +3299,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="8" t="s">
         <v>11</v>
       </c>
@@ -3290,7 +3316,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="8" t="s">
         <v>11</v>
       </c>
@@ -3307,7 +3333,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="8" t="s">
         <v>11</v>
       </c>
@@ -3324,7 +3350,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="8" t="s">
         <v>11</v>
       </c>
@@ -3341,7 +3367,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="8" t="s">
         <v>109</v>
       </c>
@@ -3358,7 +3384,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="8" t="s">
         <v>109</v>
       </c>
@@ -3375,7 +3401,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="8" t="s">
         <v>109</v>
       </c>
@@ -3392,7 +3418,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="8" t="s">
         <v>32</v>
       </c>
@@ -3409,7 +3435,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="8" t="s">
         <v>79</v>
       </c>
@@ -3426,7 +3452,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="8" t="s">
         <v>82</v>
       </c>
@@ -3443,7 +3469,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="8" t="s">
         <v>99</v>
       </c>
@@ -3460,7 +3486,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="8" t="s">
         <v>60</v>
       </c>
@@ -3477,7 +3503,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="8" t="s">
         <v>60</v>
       </c>
@@ -3494,7 +3520,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="8" t="s">
         <v>114</v>
       </c>
@@ -3511,7 +3537,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="8" t="s">
         <v>116</v>
       </c>
@@ -3528,7 +3554,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="8" t="s">
         <v>116</v>
       </c>
@@ -3545,7 +3571,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="8" t="s">
         <v>116</v>
       </c>
@@ -3562,7 +3588,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="8" t="s">
         <v>119</v>
       </c>
@@ -3579,7 +3605,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="8" t="s">
         <v>120</v>
       </c>
@@ -3596,7 +3622,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="8" t="s">
         <v>91</v>
       </c>
@@ -3613,7 +3639,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="8" t="s">
         <v>49</v>
       </c>
@@ -3630,7 +3656,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="8" t="s">
         <v>122</v>
       </c>
@@ -3647,7 +3673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="8" t="s">
         <v>39</v>
       </c>
@@ -3664,7 +3690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="8" t="s">
         <v>39</v>
       </c>
@@ -3681,7 +3707,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="8" t="s">
         <v>39</v>
       </c>
@@ -3698,7 +3724,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="8" t="s">
         <v>39</v>
       </c>
@@ -3715,7 +3741,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="8" t="s">
         <v>125</v>
       </c>
@@ -3732,7 +3758,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="8" t="s">
         <v>127</v>
       </c>
@@ -3749,7 +3775,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="8" t="s">
         <v>127</v>
       </c>
@@ -3766,7 +3792,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="8" t="s">
         <v>127</v>
       </c>
@@ -3783,7 +3809,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="8" t="s">
         <v>50</v>
       </c>
@@ -3800,7 +3826,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="8" t="s">
         <v>9</v>
       </c>
@@ -3817,7 +3843,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="8" t="s">
         <v>24</v>
       </c>
@@ -3834,7 +3860,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="8" t="s">
         <v>24</v>
       </c>
@@ -3851,7 +3877,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="8" t="s">
         <v>106</v>
       </c>
@@ -3868,7 +3894,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="8" t="s">
         <v>87</v>
       </c>
@@ -3885,7 +3911,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="8" t="s">
         <v>134</v>
       </c>
@@ -3902,7 +3928,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="8" t="s">
         <v>74</v>
       </c>
@@ -3919,7 +3945,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="8" t="s">
         <v>65</v>
       </c>
@@ -3936,7 +3962,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="8" t="s">
         <v>136</v>
       </c>
@@ -3953,7 +3979,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="8" t="s">
         <v>136</v>
       </c>
@@ -3970,7 +3996,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="8" t="s">
         <v>136</v>
       </c>
@@ -3987,7 +4013,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="8" t="s">
         <v>95</v>
       </c>
@@ -4004,7 +4030,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="8" t="s">
         <v>72</v>
       </c>
@@ -4021,7 +4047,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="8" t="s">
         <v>108</v>
       </c>
@@ -4038,7 +4064,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="8" t="s">
         <v>15</v>
       </c>
@@ -4055,7 +4081,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="8" t="s">
         <v>15</v>
       </c>
@@ -4072,7 +4098,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="8" t="s">
         <v>138</v>
       </c>
@@ -4089,7 +4115,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="8" t="s">
         <v>138</v>
       </c>
@@ -4106,7 +4132,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="8" t="s">
         <v>93</v>
       </c>
@@ -4123,7 +4149,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="8" t="s">
         <v>140</v>
       </c>
@@ -4140,7 +4166,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="8" t="s">
         <v>140</v>
       </c>
@@ -4157,7 +4183,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="8" t="s">
         <v>59</v>
       </c>
@@ -4174,7 +4200,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="8" t="s">
         <v>44</v>
       </c>
@@ -4191,7 +4217,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="8" t="s">
         <v>35</v>
       </c>
@@ -4208,7 +4234,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="8" t="s">
         <v>35</v>
       </c>
@@ -4225,7 +4251,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="8" t="s">
         <v>57</v>
       </c>
@@ -4242,7 +4268,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="8" t="s">
         <v>34</v>
       </c>
@@ -4259,7 +4285,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="8" t="s">
         <v>34</v>
       </c>
@@ -4276,7 +4302,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="8" t="s">
         <v>144</v>
       </c>
@@ -4293,7 +4319,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="8" t="s">
         <v>40</v>
       </c>
@@ -4310,7 +4336,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="8" t="s">
         <v>145</v>
       </c>
@@ -4327,7 +4353,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="8" t="s">
         <v>147</v>
       </c>
@@ -4344,7 +4370,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="8" t="s">
         <v>88</v>
       </c>
@@ -4361,7 +4387,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="8" t="s">
         <v>86</v>
       </c>
@@ -4378,7 +4404,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="8" t="s">
         <v>133</v>
       </c>
@@ -4395,7 +4421,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="8" t="s">
         <v>149</v>
       </c>
@@ -4412,7 +4438,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="8" t="s">
         <v>92</v>
       </c>
@@ -4429,7 +4455,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="8" t="s">
         <v>79</v>
       </c>
@@ -4446,7 +4472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="8" t="s">
         <v>92</v>
       </c>
@@ -4463,7 +4489,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="8" t="s">
         <v>48</v>
       </c>
@@ -4480,7 +4506,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="8" t="s">
         <v>152</v>
       </c>
@@ -4497,7 +4523,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="8" t="s">
         <v>152</v>
       </c>
@@ -4514,7 +4540,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="8" t="s">
         <v>155</v>
       </c>
@@ -4531,7 +4557,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="8" t="s">
         <v>127</v>
       </c>
@@ -4548,7 +4574,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="8" t="s">
         <v>158</v>
       </c>
@@ -4565,7 +4591,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="8" t="s">
         <v>158</v>
       </c>
@@ -4582,7 +4608,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="8" t="s">
         <v>158</v>
       </c>
@@ -4599,7 +4625,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="8" t="s">
         <v>161</v>
       </c>
@@ -4616,803 +4642,851 @@
         <v>20</v>
       </c>
     </row>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
-    <row r="1001" ht="15.75" customHeight="1"/>
-    <row r="1002" ht="15.75" customHeight="1"/>
-    <row r="1003" ht="15.75" customHeight="1"/>
-    <row r="1004" ht="15.75" customHeight="1"/>
-    <row r="1005" ht="15.75" customHeight="1"/>
-    <row r="1006" ht="15.75" customHeight="1"/>
-    <row r="1007" ht="15.75" customHeight="1"/>
-    <row r="1008" ht="15.75" customHeight="1"/>
-    <row r="1009" ht="15.75" customHeight="1"/>
-    <row r="1010" ht="15.75" customHeight="1"/>
-    <row r="1011" ht="15.75" customHeight="1"/>
-    <row r="1012" ht="15.75" customHeight="1"/>
-    <row r="1013" ht="15.75" customHeight="1"/>
-    <row r="1014" ht="15.75" customHeight="1"/>
-    <row r="1015" ht="15.75" customHeight="1"/>
-    <row r="1016" ht="15.75" customHeight="1"/>
+    <row r="221" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A221" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B221" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D221" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="E221" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A222" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B222" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D222" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="E222" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A223" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B223" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D223" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="E223" s="15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1008" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1009" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1010" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1011" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1012" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1013" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1014" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1015" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1016" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/The Web.xlsx
+++ b/The Web.xlsx
@@ -1,21 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\TheWeb\The-Web\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911D6919-6612-42C8-8EE9-961A27A7126D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
@@ -517,65 +508,48 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="6">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="15.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="15.0"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -631,61 +605,70 @@
         <bgColor theme="8"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor rgb="FF3D8B1F"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+  <cellXfs count="14">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -875,34 +858,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E1016"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E224" sqref="E224"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="18.38"/>
+    <col customWidth="1" min="2" max="2" width="19.0"/>
+    <col customWidth="1" min="3" max="3" width="13.38"/>
+    <col customWidth="1" min="4" max="4" width="17.75"/>
+    <col customWidth="1" min="5" max="5" width="15.25"/>
+    <col customWidth="1" min="6" max="6" width="12.63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" ht="24.0" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -919,7 +899,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -936,7 +916,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -953,7 +933,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -970,7 +950,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -987,7 +967,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1004,7 +984,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -1021,7 +1001,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1038,7 +1018,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -1055,7 +1035,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="8" t="s">
         <v>6</v>
       </c>
@@ -1072,7 +1052,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="8" t="s">
         <v>6</v>
       </c>
@@ -1089,7 +1069,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="8" t="s">
         <v>6</v>
       </c>
@@ -1106,7 +1086,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="8" t="s">
         <v>6</v>
       </c>
@@ -1123,7 +1103,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="8" t="s">
         <v>6</v>
       </c>
@@ -1140,7 +1120,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="8" t="s">
         <v>24</v>
       </c>
@@ -1157,7 +1137,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="8" t="s">
         <v>6</v>
       </c>
@@ -1174,7 +1154,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="8" t="s">
         <v>16</v>
       </c>
@@ -1191,7 +1171,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="8" t="s">
         <v>16</v>
       </c>
@@ -1208,7 +1188,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="8" t="s">
         <v>16</v>
       </c>
@@ -1225,7 +1205,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="8" t="s">
         <v>16</v>
       </c>
@@ -1242,7 +1222,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="8" t="s">
         <v>16</v>
       </c>
@@ -1259,7 +1239,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="8" t="s">
         <v>31</v>
       </c>
@@ -1276,7 +1256,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="8" t="s">
         <v>33</v>
       </c>
@@ -1293,7 +1273,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="8" t="s">
         <v>33</v>
       </c>
@@ -1310,7 +1290,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="8" t="s">
         <v>33</v>
       </c>
@@ -1327,7 +1307,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="8" t="s">
         <v>33</v>
       </c>
@@ -1344,7 +1324,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="8" t="s">
         <v>33</v>
       </c>
@@ -1361,7 +1341,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="8" t="s">
         <v>37</v>
       </c>
@@ -1378,7 +1358,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="8" t="s">
         <v>37</v>
       </c>
@@ -1395,7 +1375,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="8" t="s">
         <v>37</v>
       </c>
@@ -1412,7 +1392,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="8" t="s">
         <v>37</v>
       </c>
@@ -1429,7 +1409,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="8" t="s">
         <v>37</v>
       </c>
@@ -1446,7 +1426,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="8" t="s">
         <v>14</v>
       </c>
@@ -1463,7 +1443,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="8" t="s">
         <v>14</v>
       </c>
@@ -1480,7 +1460,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="8" t="s">
         <v>14</v>
       </c>
@@ -1497,7 +1477,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="8" t="s">
         <v>14</v>
       </c>
@@ -1514,7 +1494,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="8" t="s">
         <v>38</v>
       </c>
@@ -1531,7 +1511,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="8" t="s">
         <v>38</v>
       </c>
@@ -1548,7 +1528,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="8" t="s">
         <v>13</v>
       </c>
@@ -1565,7 +1545,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="8" t="s">
         <v>13</v>
       </c>
@@ -1582,7 +1562,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="8" t="s">
         <v>13</v>
       </c>
@@ -1599,7 +1579,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="8" t="s">
         <v>13</v>
       </c>
@@ -1616,7 +1596,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="8" t="s">
         <v>13</v>
       </c>
@@ -1633,7 +1613,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="8" t="s">
         <v>29</v>
       </c>
@@ -1650,7 +1630,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="8" t="s">
         <v>29</v>
       </c>
@@ -1667,7 +1647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="8" t="s">
         <v>41</v>
       </c>
@@ -1684,7 +1664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="8" t="s">
         <v>41</v>
       </c>
@@ -1701,7 +1681,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="8" t="s">
         <v>41</v>
       </c>
@@ -1718,7 +1698,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="8" t="s">
         <v>41</v>
       </c>
@@ -1735,7 +1715,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="8" t="s">
         <v>42</v>
       </c>
@@ -1752,7 +1732,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="8" t="s">
         <v>42</v>
       </c>
@@ -1769,7 +1749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="8" t="s">
         <v>42</v>
       </c>
@@ -1786,7 +1766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="8" t="s">
         <v>42</v>
       </c>
@@ -1803,7 +1783,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="8" t="s">
         <v>9</v>
       </c>
@@ -1820,7 +1800,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="8" t="s">
         <v>9</v>
       </c>
@@ -1837,7 +1817,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="8" t="s">
         <v>9</v>
       </c>
@@ -1854,7 +1834,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="8" t="s">
         <v>52</v>
       </c>
@@ -1871,7 +1851,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="8" t="s">
         <v>52</v>
       </c>
@@ -1888,7 +1868,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="8" t="s">
         <v>52</v>
       </c>
@@ -1905,7 +1885,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="8" t="s">
         <v>42</v>
       </c>
@@ -1922,7 +1902,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="8" t="s">
         <v>42</v>
       </c>
@@ -1939,7 +1919,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="8" t="s">
         <v>55</v>
       </c>
@@ -1956,7 +1936,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="8" t="s">
         <v>57</v>
       </c>
@@ -1973,7 +1953,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="8" t="s">
         <v>57</v>
       </c>
@@ -1990,7 +1970,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="8" t="s">
         <v>57</v>
       </c>
@@ -2007,7 +1987,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="8" t="s">
         <v>57</v>
       </c>
@@ -2024,7 +2004,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="8" t="s">
         <v>61</v>
       </c>
@@ -2041,7 +2021,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="8" t="s">
         <v>61</v>
       </c>
@@ -2058,7 +2038,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="8" t="s">
         <v>61</v>
       </c>
@@ -2075,7 +2055,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="8" t="s">
         <v>61</v>
       </c>
@@ -2092,7 +2072,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="8" t="s">
         <v>58</v>
       </c>
@@ -2109,7 +2089,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="8" t="s">
         <v>58</v>
       </c>
@@ -2126,7 +2106,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="8" t="s">
         <v>62</v>
       </c>
@@ -2143,7 +2123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="8" t="s">
         <v>62</v>
       </c>
@@ -2160,7 +2140,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="8" t="s">
         <v>62</v>
       </c>
@@ -2177,7 +2157,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="8" t="s">
         <v>64</v>
       </c>
@@ -2194,7 +2174,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="8" t="s">
         <v>64</v>
       </c>
@@ -2211,7 +2191,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="8" t="s">
         <v>6</v>
       </c>
@@ -2228,7 +2208,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="8" t="s">
         <v>6</v>
       </c>
@@ -2245,7 +2225,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="8" t="s">
         <v>70</v>
       </c>
@@ -2262,7 +2242,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="8" t="s">
         <v>70</v>
       </c>
@@ -2279,7 +2259,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="8" t="s">
         <v>70</v>
       </c>
@@ -2296,7 +2276,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="8" t="s">
         <v>70</v>
       </c>
@@ -2313,7 +2293,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="8" t="s">
         <v>70</v>
       </c>
@@ -2330,7 +2310,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="8" t="s">
         <v>70</v>
       </c>
@@ -2347,7 +2327,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="8" t="s">
         <v>70</v>
       </c>
@@ -2364,7 +2344,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="8" t="s">
         <v>78</v>
       </c>
@@ -2381,7 +2361,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="8" t="s">
         <v>78</v>
       </c>
@@ -2398,7 +2378,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="8" t="s">
         <v>78</v>
       </c>
@@ -2415,7 +2395,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="8" t="s">
         <v>78</v>
       </c>
@@ -2432,7 +2412,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="8" t="s">
         <v>78</v>
       </c>
@@ -2449,7 +2429,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="8" t="s">
         <v>78</v>
       </c>
@@ -2466,7 +2446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="8" t="s">
         <v>83</v>
       </c>
@@ -2483,7 +2463,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="8" t="s">
         <v>83</v>
       </c>
@@ -2500,7 +2480,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="8" t="s">
         <v>83</v>
       </c>
@@ -2517,7 +2497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="8" t="s">
         <v>83</v>
       </c>
@@ -2534,7 +2514,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="8" t="s">
         <v>83</v>
       </c>
@@ -2551,7 +2531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="8" t="s">
         <v>83</v>
       </c>
@@ -2568,7 +2548,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="8" t="s">
         <v>83</v>
       </c>
@@ -2585,7 +2565,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="8" t="s">
         <v>83</v>
       </c>
@@ -2602,7 +2582,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="8" t="s">
         <v>88</v>
       </c>
@@ -2619,7 +2599,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="8" t="s">
         <v>88</v>
       </c>
@@ -2636,7 +2616,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="8" t="s">
         <v>88</v>
       </c>
@@ -2653,7 +2633,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="8" t="s">
         <v>91</v>
       </c>
@@ -2670,7 +2650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="8" t="s">
         <v>88</v>
       </c>
@@ -2687,7 +2667,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="8" t="s">
         <v>88</v>
       </c>
@@ -2704,7 +2684,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="8" t="s">
         <v>88</v>
       </c>
@@ -2721,7 +2701,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="8" t="s">
         <v>46</v>
       </c>
@@ -2738,7 +2718,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="8" t="s">
         <v>46</v>
       </c>
@@ -2755,7 +2735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="8" t="s">
         <v>46</v>
       </c>
@@ -2772,7 +2752,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="8" t="s">
         <v>46</v>
       </c>
@@ -2789,7 +2769,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="8" t="s">
         <v>46</v>
       </c>
@@ -2806,7 +2786,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="8" t="s">
         <v>46</v>
       </c>
@@ -2823,7 +2803,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="8" t="s">
         <v>46</v>
       </c>
@@ -2840,7 +2820,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="8" t="s">
         <v>94</v>
       </c>
@@ -2857,7 +2837,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="8" t="s">
         <v>94</v>
       </c>
@@ -2874,7 +2854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="8" t="s">
         <v>94</v>
       </c>
@@ -2891,7 +2871,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="8" t="s">
         <v>94</v>
       </c>
@@ -2908,7 +2888,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="8" t="s">
         <v>94</v>
       </c>
@@ -2925,7 +2905,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="8" t="s">
         <v>43</v>
       </c>
@@ -2942,7 +2922,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="8" t="s">
         <v>43</v>
       </c>
@@ -2959,7 +2939,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="8" t="s">
         <v>43</v>
       </c>
@@ -2976,7 +2956,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="8" t="s">
         <v>43</v>
       </c>
@@ -2993,7 +2973,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="8" t="s">
         <v>43</v>
       </c>
@@ -3010,7 +2990,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="8" t="s">
         <v>97</v>
       </c>
@@ -3027,7 +3007,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="8" t="s">
         <v>97</v>
       </c>
@@ -3044,7 +3024,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="8" t="s">
         <v>97</v>
       </c>
@@ -3061,7 +3041,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="8" t="s">
         <v>97</v>
       </c>
@@ -3078,7 +3058,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="8" t="s">
         <v>97</v>
       </c>
@@ -3095,7 +3075,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="8" t="s">
         <v>97</v>
       </c>
@@ -3112,7 +3092,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="8" t="s">
         <v>101</v>
       </c>
@@ -3129,7 +3109,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="8" t="s">
         <v>101</v>
       </c>
@@ -3146,7 +3126,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="8" t="s">
         <v>101</v>
       </c>
@@ -3163,7 +3143,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="8" t="s">
         <v>101</v>
       </c>
@@ -3180,7 +3160,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="8" t="s">
         <v>101</v>
       </c>
@@ -3197,7 +3177,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="8" t="s">
         <v>105</v>
       </c>
@@ -3214,7 +3194,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="8" t="s">
         <v>105</v>
       </c>
@@ -3231,7 +3211,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="8" t="s">
         <v>105</v>
       </c>
@@ -3248,7 +3228,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="8" t="s">
         <v>105</v>
       </c>
@@ -3265,7 +3245,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="8" t="s">
         <v>105</v>
       </c>
@@ -3282,7 +3262,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="8" t="s">
         <v>11</v>
       </c>
@@ -3299,7 +3279,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="8" t="s">
         <v>11</v>
       </c>
@@ -3316,7 +3296,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="8" t="s">
         <v>11</v>
       </c>
@@ -3333,7 +3313,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="8" t="s">
         <v>11</v>
       </c>
@@ -3350,7 +3330,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="8" t="s">
         <v>11</v>
       </c>
@@ -3367,7 +3347,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="8" t="s">
         <v>109</v>
       </c>
@@ -3384,7 +3364,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="8" t="s">
         <v>109</v>
       </c>
@@ -3401,7 +3381,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="8" t="s">
         <v>109</v>
       </c>
@@ -3418,7 +3398,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="8" t="s">
         <v>32</v>
       </c>
@@ -3435,7 +3415,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="8" t="s">
         <v>79</v>
       </c>
@@ -3452,7 +3432,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="8" t="s">
         <v>82</v>
       </c>
@@ -3469,7 +3449,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="8" t="s">
         <v>99</v>
       </c>
@@ -3486,7 +3466,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="8" t="s">
         <v>60</v>
       </c>
@@ -3503,7 +3483,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="8" t="s">
         <v>60</v>
       </c>
@@ -3520,7 +3500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="8" t="s">
         <v>114</v>
       </c>
@@ -3537,7 +3517,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="8" t="s">
         <v>116</v>
       </c>
@@ -3554,7 +3534,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="8" t="s">
         <v>116</v>
       </c>
@@ -3571,7 +3551,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="8" t="s">
         <v>116</v>
       </c>
@@ -3588,7 +3568,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="8" t="s">
         <v>119</v>
       </c>
@@ -3605,7 +3585,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="8" t="s">
         <v>120</v>
       </c>
@@ -3622,7 +3602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="8" t="s">
         <v>91</v>
       </c>
@@ -3639,7 +3619,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="8" t="s">
         <v>49</v>
       </c>
@@ -3656,7 +3636,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="8" t="s">
         <v>122</v>
       </c>
@@ -3673,7 +3653,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="8" t="s">
         <v>39</v>
       </c>
@@ -3690,7 +3670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="8" t="s">
         <v>39</v>
       </c>
@@ -3707,7 +3687,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="8" t="s">
         <v>39</v>
       </c>
@@ -3724,7 +3704,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="8" t="s">
         <v>39</v>
       </c>
@@ -3741,7 +3721,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="8" t="s">
         <v>125</v>
       </c>
@@ -3758,7 +3738,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="8" t="s">
         <v>127</v>
       </c>
@@ -3775,7 +3755,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="8" t="s">
         <v>127</v>
       </c>
@@ -3792,7 +3772,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="8" t="s">
         <v>127</v>
       </c>
@@ -3809,7 +3789,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="8" t="s">
         <v>50</v>
       </c>
@@ -3826,7 +3806,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="8" t="s">
         <v>9</v>
       </c>
@@ -3843,7 +3823,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="8" t="s">
         <v>24</v>
       </c>
@@ -3860,7 +3840,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="8" t="s">
         <v>24</v>
       </c>
@@ -3877,7 +3857,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="8" t="s">
         <v>106</v>
       </c>
@@ -3894,7 +3874,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="8" t="s">
         <v>87</v>
       </c>
@@ -3911,7 +3891,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="8" t="s">
         <v>134</v>
       </c>
@@ -3928,7 +3908,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="8" t="s">
         <v>74</v>
       </c>
@@ -3945,7 +3925,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="8" t="s">
         <v>65</v>
       </c>
@@ -3962,7 +3942,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="8" t="s">
         <v>136</v>
       </c>
@@ -3979,7 +3959,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="8" t="s">
         <v>136</v>
       </c>
@@ -3996,7 +3976,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="8" t="s">
         <v>136</v>
       </c>
@@ -4013,7 +3993,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="8" t="s">
         <v>95</v>
       </c>
@@ -4030,7 +4010,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="8" t="s">
         <v>72</v>
       </c>
@@ -4047,7 +4027,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="8" t="s">
         <v>108</v>
       </c>
@@ -4064,7 +4044,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="8" t="s">
         <v>15</v>
       </c>
@@ -4081,7 +4061,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="8" t="s">
         <v>15</v>
       </c>
@@ -4098,7 +4078,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="8" t="s">
         <v>138</v>
       </c>
@@ -4115,7 +4095,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="8" t="s">
         <v>138</v>
       </c>
@@ -4132,7 +4112,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="8" t="s">
         <v>93</v>
       </c>
@@ -4149,7 +4129,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="8" t="s">
         <v>140</v>
       </c>
@@ -4166,7 +4146,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="8" t="s">
         <v>140</v>
       </c>
@@ -4183,7 +4163,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="8" t="s">
         <v>59</v>
       </c>
@@ -4200,7 +4180,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="8" t="s">
         <v>44</v>
       </c>
@@ -4217,7 +4197,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="8" t="s">
         <v>35</v>
       </c>
@@ -4234,7 +4214,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="8" t="s">
         <v>35</v>
       </c>
@@ -4251,7 +4231,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="8" t="s">
         <v>57</v>
       </c>
@@ -4268,7 +4248,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="8" t="s">
         <v>34</v>
       </c>
@@ -4285,7 +4265,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="8" t="s">
         <v>34</v>
       </c>
@@ -4302,7 +4282,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="8" t="s">
         <v>144</v>
       </c>
@@ -4319,7 +4299,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="8" t="s">
         <v>40</v>
       </c>
@@ -4336,7 +4316,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="8" t="s">
         <v>145</v>
       </c>
@@ -4353,7 +4333,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="8" t="s">
         <v>147</v>
       </c>
@@ -4370,7 +4350,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="8" t="s">
         <v>88</v>
       </c>
@@ -4387,7 +4367,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="8" t="s">
         <v>86</v>
       </c>
@@ -4404,7 +4384,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="8" t="s">
         <v>133</v>
       </c>
@@ -4421,7 +4401,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="8" t="s">
         <v>149</v>
       </c>
@@ -4438,7 +4418,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="8" t="s">
         <v>92</v>
       </c>
@@ -4455,7 +4435,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="8" t="s">
         <v>79</v>
       </c>
@@ -4472,7 +4452,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="8" t="s">
         <v>92</v>
       </c>
@@ -4489,7 +4469,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="8" t="s">
         <v>48</v>
       </c>
@@ -4506,7 +4486,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="8" t="s">
         <v>152</v>
       </c>
@@ -4523,7 +4503,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="8" t="s">
         <v>152</v>
       </c>
@@ -4540,7 +4520,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="8" t="s">
         <v>155</v>
       </c>
@@ -4557,7 +4537,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="8" t="s">
         <v>127</v>
       </c>
@@ -4574,7 +4554,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="8" t="s">
         <v>158</v>
       </c>
@@ -4591,7 +4571,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="8" t="s">
         <v>158</v>
       </c>
@@ -4608,7 +4588,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="8" t="s">
         <v>158</v>
       </c>
@@ -4625,7 +4605,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="8" t="s">
         <v>161</v>
       </c>
@@ -4642,851 +4622,851 @@
         <v>20</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" ht="15.75" customHeight="1">
       <c r="A221" s="8" t="s">
         <v>162</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="C221" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D221" s="14" t="s">
+      <c r="D221" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="E221" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E221" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="222" ht="15.75" customHeight="1">
       <c r="A222" s="8" t="s">
         <v>162</v>
       </c>
       <c r="B222" s="8" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D222" s="14" t="s">
+      <c r="D222" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="E222" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E222" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="223" ht="15.75" customHeight="1">
       <c r="A223" s="8" t="s">
         <v>162</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C223" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D223" s="14" t="s">
+      <c r="D223" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="E223" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1008" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1009" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1010" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1011" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1012" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1013" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1014" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1015" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1016" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="E223" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
+    <row r="1002" ht="15.75" customHeight="1"/>
+    <row r="1003" ht="15.75" customHeight="1"/>
+    <row r="1004" ht="15.75" customHeight="1"/>
+    <row r="1005" ht="15.75" customHeight="1"/>
+    <row r="1006" ht="15.75" customHeight="1"/>
+    <row r="1007" ht="15.75" customHeight="1"/>
+    <row r="1008" ht="15.75" customHeight="1"/>
+    <row r="1009" ht="15.75" customHeight="1"/>
+    <row r="1010" ht="15.75" customHeight="1"/>
+    <row r="1011" ht="15.75" customHeight="1"/>
+    <row r="1012" ht="15.75" customHeight="1"/>
+    <row r="1013" ht="15.75" customHeight="1"/>
+    <row r="1014" ht="15.75" customHeight="1"/>
+    <row r="1015" ht="15.75" customHeight="1"/>
+    <row r="1016" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/The Web.xlsx
+++ b/The Web.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="163">
   <si>
     <t>from</t>
   </si>
@@ -43,75 +43,78 @@
     <t>Oscar Shepherd</t>
   </si>
   <si>
+    <t>dated/dating</t>
+  </si>
+  <si>
+    <t>Alistair Thomas</t>
+  </si>
+  <si>
+    <t>pulled</t>
+  </si>
+  <si>
+    <t>Joe Hudd</t>
+  </si>
+  <si>
+    <t>Boyan Ivandjikov</t>
+  </si>
+  <si>
+    <t>Alex Wetherill</t>
+  </si>
+  <si>
+    <t>Jim Bailey</t>
+  </si>
+  <si>
+    <t>Louis Morris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucy Haines </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sarah Calvert </t>
+  </si>
+  <si>
+    <t>hh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imogen Pieters </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pippa Carcas </t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>Harry Henriksen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jess Ensoll </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lizzie Horsler </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgia Leadingham </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nea Shingler </t>
+  </si>
+  <si>
+    <t>Louise Adams</t>
+  </si>
+  <si>
+    <t>Izzy Cox</t>
+  </si>
+  <si>
+    <t>Jamie Goddard</t>
+  </si>
+  <si>
+    <t>Daisy McNamara</t>
+  </si>
+  <si>
     <t>dated</t>
   </si>
   <si>
-    <t xml:space="preserve">Ali T </t>
-  </si>
-  <si>
-    <t>pulled</t>
-  </si>
-  <si>
-    <t>Joe Hudd</t>
-  </si>
-  <si>
-    <t>Boyan Ivandjikov</t>
-  </si>
-  <si>
-    <t>Wozzle</t>
-  </si>
-  <si>
-    <t>Jim Bailey</t>
-  </si>
-  <si>
-    <t>Louis Morris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucy Haines </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sarah Calvert </t>
-  </si>
-  <si>
-    <t>hh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imogen Pieters </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pippa Carcas </t>
-  </si>
-  <si>
-    <t>o</t>
-  </si>
-  <si>
-    <t>Harry Henriksen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jess Ensoll </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lizzie Horsler </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Georgia Leadingham </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nea Shingler </t>
-  </si>
-  <si>
-    <t>Louise Adams</t>
-  </si>
-  <si>
-    <t>Izzy Cox</t>
-  </si>
-  <si>
-    <t>Jamie Goddard</t>
-  </si>
-  <si>
-    <t>Daisy McNamara</t>
-  </si>
-  <si>
     <t>David Bunn</t>
   </si>
   <si>
@@ -136,6 +139,9 @@
     <t>Alex Carcas</t>
   </si>
   <si>
+    <t xml:space="preserve">Alistair Thomas </t>
+  </si>
+  <si>
     <t>Sarah Calvert</t>
   </si>
   <si>
@@ -166,9 +172,6 @@
     <t>Emma Halliwell</t>
   </si>
   <si>
-    <t>hairy minge</t>
-  </si>
-  <si>
     <t>Fiona Eades</t>
   </si>
   <si>
@@ -178,7 +181,7 @@
     <t>Joe Sunley</t>
   </si>
   <si>
-    <t>Charles LeClerc</t>
+    <t>Charlotte Claire</t>
   </si>
   <si>
     <t>Alasdair Pedley</t>
@@ -232,7 +235,7 @@
     <t>Ben Gostick</t>
   </si>
   <si>
-    <t>Vadimir</t>
+    <t>Vladimir</t>
   </si>
   <si>
     <t>Toby Cazzolato</t>
@@ -313,7 +316,7 @@
     <t>Ben Squire</t>
   </si>
   <si>
-    <t>Barney SB</t>
+    <t>Barney Stevenson-Barnes</t>
   </si>
   <si>
     <t>Imogen Pieters</t>
@@ -346,7 +349,7 @@
     <t>Rimicans</t>
   </si>
   <si>
-    <t>CITPA</t>
+    <t>C.I.T.P.A</t>
   </si>
   <si>
     <t>Alice Wilson</t>
@@ -355,7 +358,7 @@
     <t>Iris McMillan</t>
   </si>
   <si>
-    <t>Surface News</t>
+    <t>Luca Messenger-Jones</t>
   </si>
   <si>
     <t>Amelie Dryer</t>
@@ -367,28 +370,28 @@
     <t>Fredie Fearn</t>
   </si>
   <si>
-    <t>Finlay RD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finlay RD </t>
-  </si>
-  <si>
-    <t>Charity Tweaks</t>
+    <t>Finlay Ross-Davie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finlay Ross-Davie </t>
+  </si>
+  <si>
+    <t>Charity Tweeks</t>
   </si>
   <si>
     <t>Stan Heap</t>
   </si>
   <si>
-    <t>Waltuh Hog Barrie</t>
+    <t>Adam Barrie</t>
   </si>
   <si>
     <t>Emma Crawford</t>
   </si>
   <si>
-    <t>Swaz Leitch</t>
-  </si>
-  <si>
-    <t>Muzza</t>
+    <t>Sam Leitch</t>
+  </si>
+  <si>
+    <t>Ewan Musgrave</t>
   </si>
   <si>
     <t>Isla McNair</t>
@@ -400,7 +403,7 @@
     <t>Alex Mackenzie</t>
   </si>
   <si>
-    <t>Joseph O'Beefe</t>
+    <t>Joseph O'Keefe</t>
   </si>
   <si>
     <t>Ane</t>
@@ -448,16 +451,16 @@
     <t>Rachel Brown</t>
   </si>
   <si>
-    <t>Jammond</t>
+    <t>James Hammond</t>
   </si>
   <si>
     <t>Heather High</t>
   </si>
   <si>
-    <t>Andy T</t>
-  </si>
-  <si>
-    <t>Hannah A</t>
+    <t>Andrew Thomson</t>
+  </si>
+  <si>
+    <t>Hannah Anderson</t>
   </si>
   <si>
     <t>Luke Graham</t>
@@ -497,12 +500,6 @@
   </si>
   <si>
     <t>Euan Patton</t>
-  </si>
-  <si>
-    <t>Ross Brown</t>
-  </si>
-  <si>
-    <t>rugby</t>
   </si>
 </sst>
 </file>
@@ -589,14 +586,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF00FF"/>
-        <bgColor rgb="FFFF00FF"/>
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF00FF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
-        <bgColor rgb="FF00FF00"/>
+        <fgColor rgb="FFFF00FF"/>
+        <bgColor rgb="FFFF00FF"/>
       </patternFill>
     </fill>
     <fill>
@@ -646,10 +643,10 @@
     <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="10" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -1229,8 +1226,8 @@
       <c r="B21" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>12</v>
+      <c r="C21" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>8</v>
@@ -1247,7 +1244,7 @@
         <v>32</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>8</v>
@@ -1258,7 +1255,7 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>29</v>
@@ -1275,7 +1272,7 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>27</v>
@@ -1292,10 +1289,10 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>10</v>
@@ -1309,10 +1306,10 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>12</v>
@@ -1326,10 +1323,10 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>12</v>
@@ -1343,7 +1340,7 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>19</v>
@@ -1360,7 +1357,7 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>25</v>
@@ -1377,7 +1374,7 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>29</v>
@@ -1394,7 +1391,7 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>5</v>
@@ -1411,7 +1408,7 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>30</v>
@@ -1465,7 +1462,7 @@
         <v>14</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>12</v>
@@ -1496,7 +1493,7 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>6</v>
@@ -1513,7 +1510,7 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>13</v>
@@ -1584,7 +1581,7 @@
         <v>13</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>12</v>
@@ -1618,7 +1615,7 @@
         <v>29</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>10</v>
@@ -1635,7 +1632,7 @@
         <v>29</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>12</v>
@@ -1649,10 +1646,10 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>12</v>
@@ -1666,10 +1663,10 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>12</v>
@@ -1683,10 +1680,10 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>12</v>
@@ -1700,10 +1697,10 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>12</v>
@@ -1717,10 +1714,10 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>10</v>
@@ -1734,7 +1731,7 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>30</v>
@@ -1751,10 +1748,10 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>12</v>
@@ -1768,10 +1765,10 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>12</v>
@@ -1788,7 +1785,7 @@
         <v>9</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>12</v>
@@ -1805,7 +1802,7 @@
         <v>9</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>12</v>
@@ -1822,7 +1819,7 @@
         <v>9</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>10</v>
@@ -1830,16 +1827,16 @@
       <c r="D56" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E56" s="11" t="s">
-        <v>51</v>
+      <c r="E56" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>12</v>
@@ -1853,10 +1850,10 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>10</v>
@@ -1870,10 +1867,10 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>12</v>
@@ -1887,10 +1884,10 @@
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>12</v>
@@ -1904,10 +1901,10 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>12</v>
@@ -1921,10 +1918,10 @@
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>10</v>
@@ -1938,10 +1935,10 @@
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>10</v>
@@ -1955,10 +1952,10 @@
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>10</v>
@@ -1972,10 +1969,10 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>12</v>
@@ -1989,7 +1986,7 @@
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>14</v>
@@ -2006,10 +2003,10 @@
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>7</v>
@@ -2023,10 +2020,10 @@
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>7</v>
@@ -2040,10 +2037,10 @@
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>12</v>
@@ -2057,10 +2054,10 @@
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>12</v>
@@ -2074,10 +2071,10 @@
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>10</v>
@@ -2091,7 +2088,7 @@
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>29</v>
@@ -2108,10 +2105,10 @@
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>10</v>
@@ -2125,10 +2122,10 @@
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>10</v>
@@ -2142,10 +2139,10 @@
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>12</v>
@@ -2159,10 +2156,10 @@
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>12</v>
@@ -2176,10 +2173,10 @@
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>12</v>
@@ -2196,7 +2193,7 @@
         <v>6</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>7</v>
@@ -2204,8 +2201,8 @@
       <c r="D78" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E78" s="12" t="s">
-        <v>68</v>
+      <c r="E78" s="11" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
@@ -2213,7 +2210,7 @@
         <v>6</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>7</v>
@@ -2221,16 +2218,16 @@
       <c r="D79" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E79" s="12" t="s">
-        <v>68</v>
+      <c r="E79" s="11" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>12</v>
@@ -2244,10 +2241,10 @@
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>10</v>
@@ -2261,10 +2258,10 @@
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>7</v>
@@ -2278,10 +2275,10 @@
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>12</v>
@@ -2295,10 +2292,10 @@
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>12</v>
@@ -2312,10 +2309,10 @@
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>7</v>
@@ -2329,10 +2326,10 @@
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>10</v>
@@ -2346,10 +2343,10 @@
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>10</v>
@@ -2363,10 +2360,10 @@
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>10</v>
@@ -2380,10 +2377,10 @@
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>7</v>
@@ -2397,10 +2394,10 @@
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>10</v>
@@ -2414,10 +2411,10 @@
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>10</v>
@@ -2431,7 +2428,7 @@
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B92" s="8" t="s">
         <v>13</v>
@@ -2448,10 +2445,10 @@
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>12</v>
@@ -2465,10 +2462,10 @@
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>12</v>
@@ -2482,10 +2479,10 @@
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>7</v>
@@ -2499,10 +2496,10 @@
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>10</v>
@@ -2516,10 +2513,10 @@
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>12</v>
@@ -2533,10 +2530,10 @@
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>7</v>
@@ -2550,10 +2547,10 @@
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>12</v>
@@ -2567,10 +2564,10 @@
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>12</v>
@@ -2584,10 +2581,10 @@
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>10</v>
@@ -2601,10 +2598,10 @@
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>10</v>
@@ -2618,10 +2615,10 @@
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>10</v>
@@ -2635,7 +2632,7 @@
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B104" s="8" t="s">
         <v>5</v>
@@ -2652,10 +2649,10 @@
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>10</v>
@@ -2669,10 +2666,10 @@
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>10</v>
@@ -2686,10 +2683,10 @@
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>12</v>
@@ -2703,10 +2700,10 @@
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>12</v>
@@ -2720,10 +2717,10 @@
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>10</v>
@@ -2737,10 +2734,10 @@
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>7</v>
@@ -2754,10 +2751,10 @@
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C111" s="6" t="s">
         <v>10</v>
@@ -2771,10 +2768,10 @@
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>7</v>
@@ -2788,10 +2785,10 @@
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>12</v>
@@ -2805,10 +2802,10 @@
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>10</v>
@@ -2822,10 +2819,10 @@
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>7</v>
@@ -2839,10 +2836,10 @@
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>7</v>
@@ -2856,10 +2853,10 @@
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>10</v>
@@ -2873,10 +2870,10 @@
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>7</v>
@@ -2890,10 +2887,10 @@
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>12</v>
@@ -2907,10 +2904,10 @@
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C120" s="6" t="s">
         <v>10</v>
@@ -2924,10 +2921,10 @@
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>12</v>
@@ -2941,10 +2938,10 @@
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>10</v>
@@ -2958,7 +2955,7 @@
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B123" s="8" t="s">
         <v>19</v>
@@ -2975,10 +2972,10 @@
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C124" s="6" t="s">
         <v>10</v>
@@ -2992,7 +2989,7 @@
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B125" s="8" t="s">
         <v>6</v>
@@ -3009,7 +3006,7 @@
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B126" s="8" t="s">
         <v>9</v>
@@ -3026,10 +3023,10 @@
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>12</v>
@@ -3043,10 +3040,10 @@
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C128" s="7" t="s">
         <v>12</v>
@@ -3060,10 +3057,10 @@
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>12</v>
@@ -3077,10 +3074,10 @@
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>12</v>
@@ -3094,10 +3091,10 @@
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C131" s="7" t="s">
         <v>12</v>
@@ -3111,10 +3108,10 @@
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>7</v>
@@ -3128,7 +3125,7 @@
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B133" s="8" t="s">
         <v>6</v>
@@ -3145,7 +3142,7 @@
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B134" s="8" t="s">
         <v>16</v>
@@ -3162,10 +3159,10 @@
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>10</v>
@@ -3179,7 +3176,7 @@
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B136" s="8" t="s">
         <v>6</v>
@@ -3196,7 +3193,7 @@
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B137" s="8" t="s">
         <v>13</v>
@@ -3213,10 +3210,10 @@
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C138" s="7" t="s">
         <v>12</v>
@@ -3230,10 +3227,10 @@
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C139" s="7" t="s">
         <v>12</v>
@@ -3247,7 +3244,7 @@
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B140" s="8" t="s">
         <v>14</v>
@@ -3264,7 +3261,7 @@
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="8" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B141" s="8" t="s">
         <v>5</v>
@@ -3281,10 +3278,10 @@
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="8" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C142" s="6" t="s">
         <v>10</v>
@@ -3298,10 +3295,10 @@
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="8" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C143" s="6" t="s">
         <v>10</v>
@@ -3315,10 +3312,10 @@
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="8" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C144" s="7" t="s">
         <v>12</v>
@@ -3332,7 +3329,7 @@
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="8" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B145" s="8" t="s">
         <v>29</v>
@@ -3349,10 +3346,10 @@
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C146" s="7" t="s">
         <v>12</v>
@@ -3366,10 +3363,10 @@
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C147" s="7" t="s">
         <v>12</v>
@@ -3383,10 +3380,10 @@
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>10</v>
@@ -3403,7 +3400,7 @@
         <v>32</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>10</v>
@@ -3417,10 +3414,10 @@
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C150" s="7" t="s">
         <v>12</v>
@@ -3434,10 +3431,10 @@
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C151" s="7" t="s">
         <v>12</v>
@@ -3451,10 +3448,10 @@
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C152" s="6" t="s">
         <v>10</v>
@@ -3468,10 +3465,10 @@
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C153" s="6" t="s">
         <v>10</v>
@@ -3485,7 +3482,7 @@
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B154" s="8" t="s">
         <v>18</v>
@@ -3502,10 +3499,10 @@
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C155" s="6" t="s">
         <v>10</v>
@@ -3519,10 +3516,10 @@
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C156" s="6" t="s">
         <v>10</v>
@@ -3536,10 +3533,10 @@
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>12</v>
@@ -3553,10 +3550,10 @@
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>7</v>
@@ -3570,10 +3567,10 @@
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C159" s="7" t="s">
         <v>12</v>
@@ -3587,7 +3584,7 @@
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B160" s="8" t="s">
         <v>6</v>
@@ -3604,10 +3601,10 @@
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C161" s="7" t="s">
         <v>12</v>
@@ -3621,10 +3618,10 @@
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C162" s="7" t="s">
         <v>12</v>
@@ -3638,10 +3635,10 @@
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>10</v>
@@ -3655,10 +3652,10 @@
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C164" s="7" t="s">
         <v>12</v>
@@ -3672,10 +3669,10 @@
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C165" s="7" t="s">
         <v>12</v>
@@ -3689,10 +3686,10 @@
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C166" s="7" t="s">
         <v>12</v>
@@ -3706,10 +3703,10 @@
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C167" s="7" t="s">
         <v>12</v>
@@ -3723,10 +3720,10 @@
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C168" s="6" t="s">
         <v>10</v>
@@ -3740,10 +3737,10 @@
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C169" s="6" t="s">
         <v>10</v>
@@ -3757,10 +3754,10 @@
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C170" s="7" t="s">
         <v>12</v>
@@ -3774,10 +3771,10 @@
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C171" s="7" t="s">
         <v>12</v>
@@ -3791,16 +3788,16 @@
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C172" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D172" s="11" t="s">
-        <v>51</v>
+      <c r="D172" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="E172" s="9" t="s">
         <v>20</v>
@@ -3811,7 +3808,7 @@
         <v>9</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C173" s="7" t="s">
         <v>12</v>
@@ -3828,7 +3825,7 @@
         <v>24</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C174" s="7" t="s">
         <v>12</v>
@@ -3845,7 +3842,7 @@
         <v>24</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C175" s="7" t="s">
         <v>12</v>
@@ -3859,10 +3856,10 @@
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C176" s="4" t="s">
         <v>7</v>
@@ -3876,10 +3873,10 @@
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C177" s="7" t="s">
         <v>12</v>
@@ -3893,10 +3890,10 @@
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B178" s="8" t="s">
         <v>134</v>
-      </c>
-      <c r="B178" s="8" t="s">
-        <v>133</v>
       </c>
       <c r="C178" s="6" t="s">
         <v>10</v>
@@ -3910,10 +3907,10 @@
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C179" s="7" t="s">
         <v>12</v>
@@ -3927,10 +3924,10 @@
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C180" s="4" t="s">
         <v>7</v>
@@ -3944,10 +3941,10 @@
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C181" s="4" t="s">
         <v>7</v>
@@ -3961,7 +3958,7 @@
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B182" s="8" t="s">
         <v>15</v>
@@ -3978,10 +3975,10 @@
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C183" s="7" t="s">
         <v>12</v>
@@ -3995,10 +3992,10 @@
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C184" s="7" t="s">
         <v>12</v>
@@ -4012,10 +4009,10 @@
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C185" s="6" t="s">
         <v>10</v>
@@ -4029,10 +4026,10 @@
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C186" s="4" t="s">
         <v>7</v>
@@ -4049,7 +4046,7 @@
         <v>15</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C187" s="7" t="s">
         <v>12</v>
@@ -4080,7 +4077,7 @@
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B189" s="8" t="s">
         <v>5</v>
@@ -4097,10 +4094,10 @@
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C190" s="4" t="s">
         <v>7</v>
@@ -4114,10 +4111,10 @@
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C191" s="7" t="s">
         <v>12</v>
@@ -4131,10 +4128,10 @@
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C192" s="6" t="s">
         <v>10</v>
@@ -4148,7 +4145,7 @@
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B193" s="8" t="s">
         <v>18</v>
@@ -4165,10 +4162,10 @@
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C194" s="6" t="s">
         <v>10</v>
@@ -4182,10 +4179,10 @@
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C195" s="6" t="s">
         <v>10</v>
@@ -4199,10 +4196,10 @@
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C196" s="4" t="s">
         <v>7</v>
@@ -4216,10 +4213,10 @@
     </row>
     <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C197" s="6" t="s">
         <v>10</v>
@@ -4233,10 +4230,10 @@
     </row>
     <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C198" s="7" t="s">
         <v>12</v>
@@ -4250,10 +4247,10 @@
     </row>
     <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C199" s="6" t="s">
         <v>10</v>
@@ -4267,10 +4264,10 @@
     </row>
     <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C200" s="6" t="s">
         <v>10</v>
@@ -4284,10 +4281,10 @@
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B201" s="8" t="s">
         <v>144</v>
-      </c>
-      <c r="B201" s="8" t="s">
-        <v>143</v>
       </c>
       <c r="C201" s="6" t="s">
         <v>10</v>
@@ -4301,10 +4298,10 @@
     </row>
     <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C202" s="6" t="s">
         <v>10</v>
@@ -4318,10 +4315,10 @@
     </row>
     <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C203" s="6" t="s">
         <v>10</v>
@@ -4335,10 +4332,10 @@
     </row>
     <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C204" s="7" t="s">
         <v>12</v>
@@ -4352,10 +4349,10 @@
     </row>
     <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>7</v>
@@ -4369,10 +4366,10 @@
     </row>
     <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C206" s="6" t="s">
         <v>10</v>
@@ -4386,10 +4383,10 @@
     </row>
     <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>7</v>
@@ -4403,10 +4400,10 @@
     </row>
     <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C208" s="6" t="s">
         <v>10</v>
@@ -4420,10 +4417,10 @@
     </row>
     <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C209" s="7" t="s">
         <v>12</v>
@@ -4437,10 +4434,10 @@
     </row>
     <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C210" s="7" t="s">
         <v>12</v>
@@ -4454,10 +4451,10 @@
     </row>
     <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C211" s="6" t="s">
         <v>10</v>
@@ -4471,7 +4468,7 @@
     </row>
     <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B212" s="8" t="s">
         <v>9</v>
@@ -4480,7 +4477,7 @@
         <v>12</v>
       </c>
       <c r="D212" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E212" s="5" t="s">
         <v>8</v>
@@ -4488,10 +4485,10 @@
     </row>
     <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C213" s="7" t="s">
         <v>12</v>
@@ -4505,13 +4502,13 @@
     </row>
     <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B214" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C214" s="11" t="s">
-        <v>154</v>
+      <c r="C214" s="12" t="s">
+        <v>155</v>
       </c>
       <c r="D214" s="5" t="s">
         <v>8</v>
@@ -4522,13 +4519,13 @@
     </row>
     <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D215" s="10" t="s">
         <v>23</v>
@@ -4539,13 +4536,13 @@
     </row>
     <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C216" s="13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D216" s="9" t="s">
         <v>20</v>
@@ -4556,10 +4553,10 @@
     </row>
     <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C217" s="7" t="s">
         <v>12</v>
@@ -4573,10 +4570,10 @@
     </row>
     <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C218" s="4" t="s">
         <v>7</v>
@@ -4590,10 +4587,10 @@
     </row>
     <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C219" s="7" t="s">
         <v>12</v>
@@ -4607,10 +4604,10 @@
     </row>
     <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B220" s="8" t="s">
         <v>161</v>
-      </c>
-      <c r="B220" s="8" t="s">
-        <v>160</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>7</v>
@@ -4622,57 +4619,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="221" ht="15.75" customHeight="1">
-      <c r="A221" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="B221" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C221" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D221" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E221" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="222" ht="15.75" customHeight="1">
-      <c r="A222" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="B222" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C222" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D222" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E222" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="223" ht="15.75" customHeight="1">
-      <c r="A223" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="B223" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C223" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D223" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E223" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
     <row r="224" ht="15.75" customHeight="1"/>
     <row r="225" ht="15.75" customHeight="1"/>
     <row r="226" ht="15.75" customHeight="1"/>

--- a/The Web.xlsx
+++ b/The Web.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="162">
   <si>
     <t>from</t>
   </si>
@@ -112,9 +112,6 @@
     <t>Daisy McNamara</t>
   </si>
   <si>
-    <t>dated</t>
-  </si>
-  <si>
     <t>David Bunn</t>
   </si>
   <si>
@@ -217,13 +214,13 @@
     <t>Laura King</t>
   </si>
   <si>
-    <t>Valerie Ebony</t>
-  </si>
-  <si>
-    <t>freshmex</t>
-  </si>
-  <si>
-    <t>Natalia Drozd</t>
+    <t>Dan O'Riordan</t>
+  </si>
+  <si>
+    <t>Maja Thomson</t>
+  </si>
+  <si>
+    <t>Euan Patton</t>
   </si>
   <si>
     <t>Issy Sunley</t>
@@ -268,201 +265,204 @@
     <t>Joe Wright</t>
   </si>
   <si>
+    <t>Heidi Robertshaw</t>
+  </si>
+  <si>
+    <t>Kirsty Campbell</t>
+  </si>
+  <si>
+    <t>Kat McGougan</t>
+  </si>
+  <si>
+    <t>Jenny Blackwood</t>
+  </si>
+  <si>
+    <t>Freya Shepherd</t>
+  </si>
+  <si>
+    <t>Matt Leitch</t>
+  </si>
+  <si>
+    <t>Matt Daly</t>
+  </si>
+  <si>
+    <t>Dan Barber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thomas Laraia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blayne Wright </t>
+  </si>
+  <si>
+    <t>Rob Sparks</t>
+  </si>
+  <si>
+    <t>Tallulah Wright</t>
+  </si>
+  <si>
+    <t>Ellen Crombie</t>
+  </si>
+  <si>
+    <t>Alex Crawshaw</t>
+  </si>
+  <si>
+    <t>Herbie Ashworth</t>
+  </si>
+  <si>
+    <t>Ben Squire</t>
+  </si>
+  <si>
+    <t>Barney Stevenson-Barnes</t>
+  </si>
+  <si>
+    <t>Imogen Pieters</t>
+  </si>
+  <si>
+    <t>Jakapo</t>
+  </si>
+  <si>
+    <t>Finlay Ross</t>
+  </si>
+  <si>
+    <t>Euan Tryner</t>
+  </si>
+  <si>
+    <t>Pippa Carcas</t>
+  </si>
+  <si>
+    <t>Conor Gourley</t>
+  </si>
+  <si>
+    <t>Flurry</t>
+  </si>
+  <si>
+    <t>Hannah Mo</t>
+  </si>
+  <si>
+    <t>Rosie Spencer</t>
+  </si>
+  <si>
+    <t>Rimicans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrew Bunting </t>
+  </si>
+  <si>
+    <t>Alice Wilson</t>
+  </si>
+  <si>
+    <t>Iris McMillan</t>
+  </si>
+  <si>
+    <t>Luca Messenger-Jones</t>
+  </si>
+  <si>
+    <t>Amelie Dryer</t>
+  </si>
+  <si>
+    <t>Saskia Chaplin</t>
+  </si>
+  <si>
+    <t>Fredie Fearn</t>
+  </si>
+  <si>
+    <t>Finlay Ross-Davie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finlay Ross-Davie </t>
+  </si>
+  <si>
+    <t>Charity Weeks</t>
+  </si>
+  <si>
+    <t>Stan Heap</t>
+  </si>
+  <si>
+    <t>Adam Barrie</t>
+  </si>
+  <si>
+    <t>Emma Crawford</t>
+  </si>
+  <si>
+    <t>Sam Leitch</t>
+  </si>
+  <si>
+    <t>Ewan Musgrave</t>
+  </si>
+  <si>
+    <t>Isla McNair</t>
+  </si>
+  <si>
+    <t>Eve Young</t>
+  </si>
+  <si>
+    <t>Alex Mackenzie</t>
+  </si>
+  <si>
+    <t>Joseph O'Keefe</t>
+  </si>
+  <si>
+    <t>Ane</t>
+  </si>
+  <si>
+    <t>Anya Maclean</t>
+  </si>
+  <si>
+    <t>Olivia Vareille</t>
+  </si>
+  <si>
+    <t>Noah Howlett</t>
+  </si>
+  <si>
+    <t>Ella Revitt</t>
+  </si>
+  <si>
+    <t>Maya Miller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isla Calvert </t>
+  </si>
+  <si>
+    <t>Rachael Baker</t>
+  </si>
+  <si>
+    <t>Jack Trainer</t>
+  </si>
+  <si>
+    <t>Lucy Strover</t>
+  </si>
+  <si>
+    <t>Finlay Todd</t>
+  </si>
+  <si>
+    <t>Jura McMillan</t>
+  </si>
+  <si>
+    <t>Ali Masson</t>
+  </si>
+  <si>
+    <t>Matt Knowles</t>
+  </si>
+  <si>
+    <t>Rachel Brown</t>
+  </si>
+  <si>
+    <t>James Hammond</t>
+  </si>
+  <si>
+    <t>Heather High</t>
+  </si>
+  <si>
+    <t>Andrew Thomson</t>
+  </si>
+  <si>
+    <t>Hannah Anderson</t>
+  </si>
+  <si>
     <t>Eilidh Campbell</t>
   </si>
   <si>
-    <t>Kirsty Campbell</t>
-  </si>
-  <si>
-    <t>Kat McGougan</t>
-  </si>
-  <si>
-    <t>Jenny Blackwood</t>
-  </si>
-  <si>
-    <t>Freya Shepherd</t>
-  </si>
-  <si>
-    <t>Matt Leitch</t>
-  </si>
-  <si>
-    <t>Matt Daly</t>
-  </si>
-  <si>
-    <t>Dan Barber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thomas Laraia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blayne Wright </t>
-  </si>
-  <si>
-    <t>Rob Sparks</t>
-  </si>
-  <si>
-    <t>Tallulah Wright</t>
-  </si>
-  <si>
-    <t>Ellen Crombie</t>
-  </si>
-  <si>
-    <t>Alex Crawshaw</t>
-  </si>
-  <si>
-    <t>Herbie Ashworth</t>
-  </si>
-  <si>
-    <t>Ben Squire</t>
-  </si>
-  <si>
-    <t>Barney Stevenson-Barnes</t>
-  </si>
-  <si>
-    <t>Imogen Pieters</t>
-  </si>
-  <si>
-    <t>Jakapo</t>
-  </si>
-  <si>
-    <t>Finlay Ross</t>
-  </si>
-  <si>
-    <t>Euan Tryner</t>
-  </si>
-  <si>
-    <t>Pippa Carcas</t>
-  </si>
-  <si>
-    <t>Conor Gourley</t>
-  </si>
-  <si>
-    <t>Flurry</t>
-  </si>
-  <si>
-    <t>Hannah Mo</t>
-  </si>
-  <si>
-    <t>Rosie Spencer</t>
-  </si>
-  <si>
-    <t>Rimicans</t>
-  </si>
-  <si>
-    <t>C.I.T.P.A</t>
-  </si>
-  <si>
-    <t>Alice Wilson</t>
-  </si>
-  <si>
-    <t>Iris McMillan</t>
-  </si>
-  <si>
-    <t>Luca Messenger-Jones</t>
-  </si>
-  <si>
-    <t>Amelie Dryer</t>
-  </si>
-  <si>
-    <t>Saskia Chaplin</t>
-  </si>
-  <si>
-    <t>Fredie Fearn</t>
-  </si>
-  <si>
-    <t>Finlay Ross-Davie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finlay Ross-Davie </t>
-  </si>
-  <si>
-    <t>Charity Tweeks</t>
-  </si>
-  <si>
-    <t>Stan Heap</t>
-  </si>
-  <si>
-    <t>Adam Barrie</t>
-  </si>
-  <si>
-    <t>Emma Crawford</t>
-  </si>
-  <si>
-    <t>Sam Leitch</t>
-  </si>
-  <si>
-    <t>Ewan Musgrave</t>
-  </si>
-  <si>
-    <t>Isla McNair</t>
-  </si>
-  <si>
-    <t>Eve Young</t>
-  </si>
-  <si>
-    <t>Alex Mackenzie</t>
-  </si>
-  <si>
-    <t>Joseph O'Keefe</t>
-  </si>
-  <si>
-    <t>Ane</t>
-  </si>
-  <si>
-    <t>Anya Maclean</t>
-  </si>
-  <si>
-    <t>Olivia Vareille</t>
-  </si>
-  <si>
-    <t>Noah Howlett</t>
-  </si>
-  <si>
-    <t>Ella Revitt</t>
-  </si>
-  <si>
-    <t>Maya Miler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isla Calvert </t>
-  </si>
-  <si>
-    <t>Rachael Baker</t>
-  </si>
-  <si>
-    <t>Jack Trainer</t>
-  </si>
-  <si>
-    <t>Lucy Strover</t>
-  </si>
-  <si>
-    <t>Finlay Todd</t>
-  </si>
-  <si>
-    <t>Jura McMillan</t>
-  </si>
-  <si>
-    <t>Ali Masson</t>
-  </si>
-  <si>
-    <t>Matt Knowles</t>
-  </si>
-  <si>
-    <t>Rachel Brown</t>
-  </si>
-  <si>
-    <t>James Hammond</t>
-  </si>
-  <si>
-    <t>Heather High</t>
-  </si>
-  <si>
-    <t>Andrew Thomson</t>
-  </si>
-  <si>
-    <t>Hannah Anderson</t>
-  </si>
-  <si>
     <t>Luke Graham</t>
   </si>
   <si>
@@ -481,32 +481,29 @@
     <t>hong_dong</t>
   </si>
   <si>
-    <t>Finlay Raynor</t>
-  </si>
-  <si>
     <t>Jamie Liversidge</t>
   </si>
   <si>
     <t>strava_rizz</t>
   </si>
   <si>
-    <t>Dan O'Riordan</t>
-  </si>
-  <si>
-    <t>Heidi Robertshaw</t>
-  </si>
-  <si>
-    <t>Maja Thomson</t>
-  </si>
-  <si>
-    <t>Euan Patton</t>
+    <t>Angus Smith</t>
+  </si>
+  <si>
+    <t>Caitlyn Heggie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ewan Foubester </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angus Wright </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -540,8 +537,13 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -586,12 +588,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
-        <bgColor rgb="FF00FF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF00FF"/>
         <bgColor rgb="FFFF00FF"/>
       </patternFill>
@@ -609,7 +605,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -643,15 +639,16 @@
     <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1244,7 +1241,7 @@
         <v>32</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>8</v>
@@ -1255,7 +1252,7 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>29</v>
@@ -1272,7 +1269,7 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>27</v>
@@ -1289,10 +1286,10 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>35</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>10</v>
@@ -1306,10 +1303,10 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>12</v>
@@ -1323,10 +1320,10 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>12</v>
@@ -1340,7 +1337,7 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>19</v>
@@ -1357,7 +1354,7 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>25</v>
@@ -1374,7 +1371,7 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>29</v>
@@ -1391,7 +1388,7 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>5</v>
@@ -1408,7 +1405,7 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>30</v>
@@ -1462,7 +1459,7 @@
         <v>14</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>12</v>
@@ -1493,7 +1490,7 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>6</v>
@@ -1510,7 +1507,7 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>13</v>
@@ -1581,7 +1578,7 @@
         <v>13</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>12</v>
@@ -1615,7 +1612,7 @@
         <v>29</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>10</v>
@@ -1632,7 +1629,7 @@
         <v>29</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>12</v>
@@ -1646,10 +1643,10 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>44</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>12</v>
@@ -1663,10 +1660,10 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>12</v>
@@ -1680,10 +1677,10 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>12</v>
@@ -1697,10 +1694,10 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>12</v>
@@ -1714,10 +1711,10 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>10</v>
@@ -1731,7 +1728,7 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>30</v>
@@ -1748,10 +1745,10 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>12</v>
@@ -1765,10 +1762,10 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>12</v>
@@ -1785,7 +1782,7 @@
         <v>9</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>12</v>
@@ -1802,7 +1799,7 @@
         <v>9</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>12</v>
@@ -1819,7 +1816,7 @@
         <v>9</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>10</v>
@@ -1833,10 +1830,10 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>54</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>12</v>
@@ -1850,10 +1847,10 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>10</v>
@@ -1867,10 +1864,10 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>12</v>
@@ -1884,10 +1881,10 @@
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>12</v>
@@ -1901,10 +1898,10 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>12</v>
@@ -1918,10 +1915,10 @@
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B62" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>57</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>10</v>
@@ -1935,10 +1932,10 @@
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B63" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>10</v>
@@ -1952,10 +1949,10 @@
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>10</v>
@@ -1969,10 +1966,10 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>12</v>
@@ -1986,7 +1983,7 @@
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>14</v>
@@ -2003,10 +2000,10 @@
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>7</v>
@@ -2020,10 +2017,10 @@
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B68" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>63</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>7</v>
@@ -2037,10 +2034,10 @@
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>12</v>
@@ -2054,10 +2051,10 @@
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>12</v>
@@ -2071,10 +2068,10 @@
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>10</v>
@@ -2088,7 +2085,7 @@
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>29</v>
@@ -2105,10 +2102,10 @@
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>10</v>
@@ -2122,10 +2119,10 @@
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>10</v>
@@ -2139,10 +2136,10 @@
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>12</v>
@@ -2156,10 +2153,10 @@
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>12</v>
@@ -2173,10 +2170,10 @@
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>12</v>
@@ -2190,44 +2187,44 @@
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="8" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="B78" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C78" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E78" s="11" t="s">
-        <v>69</v>
+      <c r="C78" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="8" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D79" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E79" s="11" t="s">
-        <v>69</v>
+      <c r="D79" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B80" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>72</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>12</v>
@@ -2241,10 +2238,10 @@
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>10</v>
@@ -2258,10 +2255,10 @@
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>7</v>
@@ -2275,10 +2272,10 @@
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>12</v>
@@ -2292,10 +2289,10 @@
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>12</v>
@@ -2309,10 +2306,10 @@
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>7</v>
@@ -2326,10 +2323,10 @@
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>10</v>
@@ -2343,10 +2340,10 @@
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B87" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>80</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>10</v>
@@ -2360,10 +2357,10 @@
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>10</v>
@@ -2377,10 +2374,10 @@
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>7</v>
@@ -2394,10 +2391,10 @@
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>10</v>
@@ -2411,10 +2408,10 @@
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>10</v>
@@ -2428,7 +2425,7 @@
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B92" s="8" t="s">
         <v>13</v>
@@ -2445,27 +2442,27 @@
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B93" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B93" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>8</v>
+      <c r="C93" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>12</v>
@@ -2479,10 +2476,10 @@
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>7</v>
@@ -2496,10 +2493,10 @@
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>10</v>
@@ -2513,10 +2510,10 @@
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>12</v>
@@ -2530,10 +2527,10 @@
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>7</v>
@@ -2547,10 +2544,10 @@
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>12</v>
@@ -2564,10 +2561,10 @@
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>12</v>
@@ -2581,10 +2578,10 @@
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B101" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="B101" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>10</v>
@@ -2598,10 +2595,10 @@
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>10</v>
@@ -2615,10 +2612,10 @@
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>10</v>
@@ -2632,7 +2629,7 @@
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B104" s="8" t="s">
         <v>5</v>
@@ -2649,10 +2646,10 @@
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>10</v>
@@ -2666,10 +2663,10 @@
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>10</v>
@@ -2683,10 +2680,10 @@
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>12</v>
@@ -2700,10 +2697,10 @@
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>12</v>
@@ -2717,10 +2714,10 @@
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>10</v>
@@ -2734,10 +2731,10 @@
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>7</v>
@@ -2751,10 +2748,10 @@
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C111" s="6" t="s">
         <v>10</v>
@@ -2768,10 +2765,10 @@
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>7</v>
@@ -2785,10 +2782,10 @@
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>12</v>
@@ -2802,10 +2799,10 @@
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>10</v>
@@ -2819,10 +2816,10 @@
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>7</v>
@@ -2836,10 +2833,10 @@
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>7</v>
@@ -2853,10 +2850,10 @@
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B117" s="8" t="s">
         <v>95</v>
-      </c>
-      <c r="B117" s="8" t="s">
-        <v>96</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>10</v>
@@ -2870,10 +2867,10 @@
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>7</v>
@@ -2887,10 +2884,10 @@
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>12</v>
@@ -2904,10 +2901,10 @@
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C120" s="6" t="s">
         <v>10</v>
@@ -2921,10 +2918,10 @@
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>12</v>
@@ -2938,10 +2935,10 @@
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>10</v>
@@ -2955,7 +2952,7 @@
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B123" s="8" t="s">
         <v>19</v>
@@ -2972,10 +2969,10 @@
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C124" s="6" t="s">
         <v>10</v>
@@ -2989,7 +2986,7 @@
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B125" s="8" t="s">
         <v>6</v>
@@ -3006,7 +3003,7 @@
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B126" s="8" t="s">
         <v>9</v>
@@ -3023,10 +3020,10 @@
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B127" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="B127" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>12</v>
@@ -3040,10 +3037,10 @@
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C128" s="7" t="s">
         <v>12</v>
@@ -3057,10 +3054,10 @@
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>12</v>
@@ -3074,10 +3071,10 @@
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>12</v>
@@ -3091,10 +3088,10 @@
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B131" s="8" t="s">
         <v>102</v>
-      </c>
-      <c r="B131" s="8" t="s">
-        <v>103</v>
       </c>
       <c r="C131" s="7" t="s">
         <v>12</v>
@@ -3108,10 +3105,10 @@
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>7</v>
@@ -3125,7 +3122,7 @@
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B133" s="8" t="s">
         <v>6</v>
@@ -3142,7 +3139,7 @@
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B134" s="8" t="s">
         <v>16</v>
@@ -3159,10 +3156,10 @@
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>10</v>
@@ -3176,7 +3173,7 @@
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B136" s="8" t="s">
         <v>6</v>
@@ -3193,7 +3190,7 @@
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B137" s="8" t="s">
         <v>13</v>
@@ -3210,10 +3207,10 @@
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B138" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="B138" s="8" t="s">
-        <v>107</v>
       </c>
       <c r="C138" s="7" t="s">
         <v>12</v>
@@ -3227,10 +3224,10 @@
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C139" s="7" t="s">
         <v>12</v>
@@ -3244,7 +3241,7 @@
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B140" s="8" t="s">
         <v>14</v>
@@ -3261,7 +3258,7 @@
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B141" s="8" t="s">
         <v>5</v>
@@ -3278,10 +3275,10 @@
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C142" s="6" t="s">
         <v>10</v>
@@ -3295,10 +3292,10 @@
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C143" s="6" t="s">
         <v>10</v>
@@ -3312,10 +3309,10 @@
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C144" s="7" t="s">
         <v>12</v>
@@ -3329,7 +3326,7 @@
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B145" s="8" t="s">
         <v>29</v>
@@ -3346,10 +3343,10 @@
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C146" s="7" t="s">
         <v>12</v>
@@ -3363,10 +3360,10 @@
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B147" s="8" t="s">
         <v>110</v>
-      </c>
-      <c r="B147" s="8" t="s">
-        <v>111</v>
       </c>
       <c r="C147" s="7" t="s">
         <v>12</v>
@@ -3380,10 +3377,10 @@
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>10</v>
@@ -3400,7 +3397,7 @@
         <v>32</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>10</v>
@@ -3414,10 +3411,10 @@
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C150" s="7" t="s">
         <v>12</v>
@@ -3431,10 +3428,10 @@
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C151" s="7" t="s">
         <v>12</v>
@@ -3448,10 +3445,10 @@
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C152" s="6" t="s">
         <v>10</v>
@@ -3465,10 +3462,10 @@
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C153" s="6" t="s">
         <v>10</v>
@@ -3482,7 +3479,7 @@
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B154" s="8" t="s">
         <v>18</v>
@@ -3499,10 +3496,10 @@
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B155" s="8" t="s">
         <v>115</v>
-      </c>
-      <c r="B155" s="8" t="s">
-        <v>116</v>
       </c>
       <c r="C155" s="6" t="s">
         <v>10</v>
@@ -3516,10 +3513,10 @@
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B156" s="8" t="s">
         <v>117</v>
-      </c>
-      <c r="B156" s="8" t="s">
-        <v>118</v>
       </c>
       <c r="C156" s="6" t="s">
         <v>10</v>
@@ -3533,10 +3530,10 @@
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>12</v>
@@ -3550,10 +3547,10 @@
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>7</v>
@@ -3567,10 +3564,10 @@
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B159" s="8" t="s">
         <v>120</v>
-      </c>
-      <c r="B159" s="8" t="s">
-        <v>121</v>
       </c>
       <c r="C159" s="7" t="s">
         <v>12</v>
@@ -3584,7 +3581,7 @@
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B160" s="8" t="s">
         <v>6</v>
@@ -3601,10 +3598,10 @@
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C161" s="7" t="s">
         <v>12</v>
@@ -3618,10 +3615,10 @@
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C162" s="7" t="s">
         <v>12</v>
@@ -3635,10 +3632,10 @@
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B163" s="8" t="s">
         <v>123</v>
-      </c>
-      <c r="B163" s="8" t="s">
-        <v>124</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>10</v>
@@ -3652,10 +3649,10 @@
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C164" s="7" t="s">
         <v>12</v>
@@ -3669,10 +3666,10 @@
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C165" s="7" t="s">
         <v>12</v>
@@ -3686,10 +3683,10 @@
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C166" s="7" t="s">
         <v>12</v>
@@ -3703,10 +3700,10 @@
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C167" s="7" t="s">
         <v>12</v>
@@ -3720,10 +3717,10 @@
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B168" s="8" t="s">
         <v>126</v>
-      </c>
-      <c r="B168" s="8" t="s">
-        <v>127</v>
       </c>
       <c r="C168" s="6" t="s">
         <v>10</v>
@@ -3737,10 +3734,10 @@
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C169" s="6" t="s">
         <v>10</v>
@@ -3754,10 +3751,10 @@
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C170" s="7" t="s">
         <v>12</v>
@@ -3771,10 +3768,10 @@
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B171" s="8" t="s">
         <v>128</v>
-      </c>
-      <c r="B171" s="8" t="s">
-        <v>129</v>
       </c>
       <c r="C171" s="7" t="s">
         <v>12</v>
@@ -3788,10 +3785,10 @@
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C172" s="6" t="s">
         <v>10</v>
@@ -3808,7 +3805,7 @@
         <v>9</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C173" s="7" t="s">
         <v>12</v>
@@ -3825,7 +3822,7 @@
         <v>24</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C174" s="7" t="s">
         <v>12</v>
@@ -3842,7 +3839,7 @@
         <v>24</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C175" s="7" t="s">
         <v>12</v>
@@ -3856,10 +3853,10 @@
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C176" s="4" t="s">
         <v>7</v>
@@ -3873,10 +3870,10 @@
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C177" s="7" t="s">
         <v>12</v>
@@ -3890,10 +3887,10 @@
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C178" s="6" t="s">
         <v>10</v>
@@ -3907,10 +3904,10 @@
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C179" s="7" t="s">
         <v>12</v>
@@ -3924,10 +3921,10 @@
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C180" s="4" t="s">
         <v>7</v>
@@ -3941,10 +3938,10 @@
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C181" s="4" t="s">
         <v>7</v>
@@ -3958,7 +3955,7 @@
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B182" s="8" t="s">
         <v>15</v>
@@ -3975,10 +3972,10 @@
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C183" s="7" t="s">
         <v>12</v>
@@ -3992,10 +3989,10 @@
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C184" s="7" t="s">
         <v>12</v>
@@ -4009,10 +4006,10 @@
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C185" s="6" t="s">
         <v>10</v>
@@ -4026,10 +4023,10 @@
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C186" s="4" t="s">
         <v>7</v>
@@ -4046,7 +4043,7 @@
         <v>15</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C187" s="7" t="s">
         <v>12</v>
@@ -4077,7 +4074,7 @@
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B189" s="8" t="s">
         <v>5</v>
@@ -4094,10 +4091,10 @@
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B190" s="8" t="s">
         <v>139</v>
-      </c>
-      <c r="B190" s="8" t="s">
-        <v>140</v>
       </c>
       <c r="C190" s="4" t="s">
         <v>7</v>
@@ -4111,10 +4108,10 @@
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C191" s="7" t="s">
         <v>12</v>
@@ -4128,10 +4125,10 @@
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C192" s="6" t="s">
         <v>10</v>
@@ -4145,7 +4142,7 @@
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B193" s="8" t="s">
         <v>18</v>
@@ -4162,10 +4159,10 @@
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C194" s="6" t="s">
         <v>10</v>
@@ -4179,10 +4176,10 @@
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C195" s="6" t="s">
         <v>10</v>
@@ -4196,10 +4193,10 @@
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C196" s="4" t="s">
         <v>7</v>
@@ -4213,10 +4210,10 @@
     </row>
     <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C197" s="6" t="s">
         <v>10</v>
@@ -4230,10 +4227,10 @@
     </row>
     <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C198" s="7" t="s">
         <v>12</v>
@@ -4247,10 +4244,10 @@
     </row>
     <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C199" s="6" t="s">
         <v>10</v>
@@ -4264,10 +4261,10 @@
     </row>
     <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C200" s="6" t="s">
         <v>10</v>
@@ -4281,10 +4278,10 @@
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C201" s="6" t="s">
         <v>10</v>
@@ -4298,10 +4295,10 @@
     </row>
     <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C202" s="6" t="s">
         <v>10</v>
@@ -4315,10 +4312,10 @@
     </row>
     <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B203" s="8" t="s">
         <v>146</v>
-      </c>
-      <c r="B203" s="8" t="s">
-        <v>147</v>
       </c>
       <c r="C203" s="6" t="s">
         <v>10</v>
@@ -4332,10 +4329,10 @@
     </row>
     <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B204" s="8" t="s">
         <v>148</v>
-      </c>
-      <c r="B204" s="8" t="s">
-        <v>149</v>
       </c>
       <c r="C204" s="7" t="s">
         <v>12</v>
@@ -4349,10 +4346,10 @@
     </row>
     <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>7</v>
@@ -4366,10 +4363,10 @@
     </row>
     <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C206" s="6" t="s">
         <v>10</v>
@@ -4383,10 +4380,10 @@
     </row>
     <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>85</v>
+        <v>149</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>7</v>
@@ -4403,7 +4400,7 @@
         <v>150</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>85</v>
+        <v>149</v>
       </c>
       <c r="C208" s="6" t="s">
         <v>10</v>
@@ -4417,10 +4414,10 @@
     </row>
     <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>85</v>
+        <v>149</v>
       </c>
       <c r="C209" s="7" t="s">
         <v>12</v>
@@ -4434,10 +4431,10 @@
     </row>
     <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>85</v>
+        <v>149</v>
       </c>
       <c r="C210" s="7" t="s">
         <v>12</v>
@@ -4451,7 +4448,7 @@
     </row>
     <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B211" s="8" t="s">
         <v>151</v>
@@ -4468,7 +4465,7 @@
     </row>
     <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B212" s="8" t="s">
         <v>9</v>
@@ -4507,7 +4504,7 @@
       <c r="B214" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C214" s="12" t="s">
+      <c r="C214" s="11" t="s">
         <v>155</v>
       </c>
       <c r="D214" s="5" t="s">
@@ -4519,79 +4516,81 @@
     </row>
     <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="8" t="s">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C215" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D215" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E215" s="5" t="s">
-        <v>8</v>
+        <v>136</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D215" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E215" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B216" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C216" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="C216" s="13" t="s">
+      <c r="D216" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E216" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="217" ht="15.75" customHeight="1">
+      <c r="A217" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="D216" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E216" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="8" t="s">
+      <c r="B217" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C217" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D217" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E217" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F217" s="14"/>
+    </row>
+    <row r="218" ht="15.75" customHeight="1">
+      <c r="A218" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B217" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C217" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D217" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E217" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="8" t="s">
+      <c r="B218" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C218" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D218" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E218" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F218" s="14"/>
+    </row>
+    <row r="219" ht="15.75" customHeight="1">
+      <c r="A219" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B219" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B218" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C218" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D218" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E218" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="B219" s="8" t="s">
-        <v>161</v>
-      </c>
       <c r="C219" s="7" t="s">
         <v>12</v>
       </c>
@@ -4601,29 +4600,56 @@
       <c r="E219" s="9" t="s">
         <v>20</v>
       </c>
+      <c r="F219" s="14"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="B220" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C220" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D220" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E220" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
+      <c r="A220" s="14"/>
+      <c r="B220" s="14"/>
+      <c r="C220" s="13"/>
+      <c r="D220" s="13"/>
+      <c r="E220" s="13"/>
+      <c r="F220" s="14"/>
+    </row>
+    <row r="221" ht="15.75" customHeight="1">
+      <c r="A221" s="14"/>
+      <c r="B221" s="14"/>
+      <c r="C221" s="14"/>
+      <c r="D221" s="14"/>
+      <c r="E221" s="14"/>
+      <c r="F221" s="14"/>
+    </row>
+    <row r="222" ht="15.75" customHeight="1">
+      <c r="A222" s="14"/>
+      <c r="B222" s="14"/>
+      <c r="C222" s="14"/>
+      <c r="D222" s="14"/>
+      <c r="E222" s="14"/>
+      <c r="F222" s="14"/>
+    </row>
+    <row r="223" ht="15.75" customHeight="1">
+      <c r="A223" s="14"/>
+      <c r="B223" s="14"/>
+      <c r="C223" s="14"/>
+      <c r="D223" s="14"/>
+      <c r="E223" s="14"/>
+      <c r="F223" s="14"/>
+    </row>
+    <row r="224" ht="15.75" customHeight="1">
+      <c r="A224" s="14"/>
+      <c r="B224" s="14"/>
+      <c r="C224" s="14"/>
+      <c r="D224" s="14"/>
+      <c r="E224" s="14"/>
+      <c r="F224" s="14"/>
+    </row>
+    <row r="225" ht="15.75" customHeight="1">
+      <c r="A225" s="14"/>
+      <c r="B225" s="14"/>
+      <c r="C225" s="14"/>
+      <c r="D225" s="14"/>
+      <c r="E225" s="14"/>
+      <c r="F225" s="14"/>
+    </row>
     <row r="226" ht="15.75" customHeight="1"/>
     <row r="227" ht="15.75" customHeight="1"/>
     <row r="228" ht="15.75" customHeight="1"/>

--- a/The Web.xlsx
+++ b/The Web.xlsx
@@ -3,7 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="RAW data" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Ranking Points" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="193">
   <si>
     <t>from</t>
   </si>
@@ -364,7 +365,7 @@
     <t>Saskia Chaplin</t>
   </si>
   <si>
-    <t>Fredie Fearn</t>
+    <t>Freddie Fearn</t>
   </si>
   <si>
     <t>Finlay Ross-Davie</t>
@@ -497,6 +498,99 @@
   </si>
   <si>
     <t xml:space="preserve">Angus Wright </t>
+  </si>
+  <si>
+    <t>Charlie Rennie</t>
+  </si>
+  <si>
+    <t>Dom Green</t>
+  </si>
+  <si>
+    <t>Ellinor Ellis</t>
+  </si>
+  <si>
+    <t>Chloe Potter</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Ranking (-100-&gt;+100)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Male </t>
+  </si>
+  <si>
+    <t>Lizzie Stansfield</t>
+  </si>
+  <si>
+    <t>Best 3 links to count</t>
+  </si>
+  <si>
+    <t>Shag: x10</t>
+  </si>
+  <si>
+    <t>Jess Ensoll</t>
+  </si>
+  <si>
+    <t>Dated: x5</t>
+  </si>
+  <si>
+    <t>Pulled: x2</t>
+  </si>
+  <si>
+    <t>Isla Calvert</t>
+  </si>
+  <si>
+    <t>Sam Griffin</t>
+  </si>
+  <si>
+    <t>note: if a man/woman is clapped he/she will have a negative ranking and this could therefore lead to someone having negative ranking points</t>
+  </si>
+  <si>
+    <t>Angus Wright</t>
+  </si>
+  <si>
+    <t>Finlay RD</t>
+  </si>
+  <si>
+    <t>Louis McMillan</t>
+  </si>
+  <si>
+    <t>Thomas Laraia</t>
+  </si>
+  <si>
+    <t>Alison Bell</t>
+  </si>
+  <si>
+    <t>Ewan Foubister</t>
+  </si>
+  <si>
+    <t>Ewan Patton</t>
+  </si>
+  <si>
+    <t>Rachael Brown</t>
+  </si>
+  <si>
+    <t>Herbie</t>
+  </si>
+  <si>
+    <t>Georgia Ledingham</t>
+  </si>
+  <si>
+    <t>Nea Shingler</t>
+  </si>
+  <si>
+    <t>Blayne Wright</t>
+  </si>
+  <si>
+    <t>Andrew Bunting</t>
+  </si>
+  <si>
+    <t>Barney Steventon-Barnes</t>
+  </si>
+  <si>
+    <t>Matt Dailey</t>
   </si>
 </sst>
 </file>
@@ -658,6 +752,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -4603,43 +4701,93 @@
       <c r="F219" s="14"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="14"/>
-      <c r="B220" s="14"/>
-      <c r="C220" s="13"/>
-      <c r="D220" s="13"/>
-      <c r="E220" s="13"/>
+      <c r="A220" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B220" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C220" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D220" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E220" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="F220" s="14"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="A221" s="14"/>
-      <c r="B221" s="14"/>
-      <c r="C221" s="14"/>
-      <c r="D221" s="14"/>
-      <c r="E221" s="14"/>
+      <c r="A221" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B221" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="C221" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D221" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E221" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F221" s="14"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="A222" s="14"/>
-      <c r="B222" s="14"/>
-      <c r="C222" s="14"/>
-      <c r="D222" s="14"/>
-      <c r="E222" s="14"/>
+      <c r="A222" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="B222" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C222" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D222" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E222" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="F222" s="14"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="A223" s="14"/>
-      <c r="B223" s="14"/>
-      <c r="C223" s="14"/>
-      <c r="D223" s="14"/>
-      <c r="E223" s="14"/>
+      <c r="A223" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B223" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C223" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D223" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E223" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="F223" s="14"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="A224" s="14"/>
-      <c r="B224" s="14"/>
-      <c r="C224" s="14"/>
-      <c r="D224" s="14"/>
-      <c r="E224" s="14"/>
+      <c r="A224" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="B224" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="C224" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D224" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E224" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="F224" s="14"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
@@ -5444,4 +5592,631 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.0"/>
+    <col customWidth="1" min="2" max="2" width="18.5"/>
+    <col customWidth="1" min="4" max="4" width="20.75"/>
+    <col customWidth="1" min="5" max="5" width="18.38"/>
+    <col customWidth="1" min="8" max="8" width="22.75"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E13" s="8">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B55" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="D67" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="D68" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="D69" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="D70" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="D71" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="D72" s="8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="D73" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="D74" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="D75" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="D76" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/The Web.xlsx
+++ b/The Web.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="205">
   <si>
     <t>from</t>
   </si>
@@ -494,7 +494,7 @@
     <t>Caitlyn Heggie</t>
   </si>
   <si>
-    <t xml:space="preserve">Ewan Foubester </t>
+    <t xml:space="preserve">Ewan Foubister </t>
   </si>
   <si>
     <t xml:space="preserve">Angus Wright </t>
@@ -512,6 +512,45 @@
     <t>Chloe Potter</t>
   </si>
   <si>
+    <t>Ewan Foubister</t>
+  </si>
+  <si>
+    <t>Harris Pagett</t>
+  </si>
+  <si>
+    <t>Thomas Hilton</t>
+  </si>
+  <si>
+    <t>Allegra Souter</t>
+  </si>
+  <si>
+    <t>Oliver Morrison</t>
+  </si>
+  <si>
+    <t>Phoebe Gill</t>
+  </si>
+  <si>
+    <t>snap</t>
+  </si>
+  <si>
+    <t>Izzy Howard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daisy McNamara </t>
+  </si>
+  <si>
+    <t>Megan Keith</t>
+  </si>
+  <si>
+    <t>Katie the Rager</t>
+  </si>
+  <si>
+    <t>Alistair Marshall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ewan Bennet </t>
+  </si>
+  <si>
     <t>Female</t>
   </si>
   <si>
@@ -561,9 +600,6 @@
   </si>
   <si>
     <t>Alison Bell</t>
-  </si>
-  <si>
-    <t>Ewan Foubister</t>
   </si>
   <si>
     <t>Ewan Patton</t>
@@ -637,7 +673,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -692,6 +728,18 @@
         <bgColor theme="8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -699,7 +747,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -743,6 +791,10 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="10" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="11" fontId="5" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -4689,8 +4741,8 @@
       <c r="B219" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="C219" s="7" t="s">
-        <v>12</v>
+      <c r="C219" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="D219" s="9" t="s">
         <v>20</v>
@@ -4791,29 +4843,283 @@
       <c r="F224" s="14"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="A225" s="14"/>
-      <c r="B225" s="14"/>
-      <c r="C225" s="14"/>
-      <c r="D225" s="14"/>
-      <c r="E225" s="14"/>
+      <c r="A225" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B225" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D225" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E225" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="F225" s="14"/>
     </row>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1">
+      <c r="A226" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B226" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C226" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D226" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E226" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="227" ht="15.75" customHeight="1">
+      <c r="A227" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B227" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D227" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E227" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="228" ht="15.75" customHeight="1">
+      <c r="A228" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B228" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C228" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D228" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E228" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="229" ht="15.75" customHeight="1">
+      <c r="A229" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B229" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D229" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E229" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="230" ht="15.75" customHeight="1">
+      <c r="A230" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B230" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C230" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D230" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E230" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="231" ht="15.75" customHeight="1">
+      <c r="A231" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B231" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C231" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D231" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E231" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="232" ht="15.75" customHeight="1">
+      <c r="A232" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B232" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C232" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="D232" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E232" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="233" ht="15.75" customHeight="1">
+      <c r="A233" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B233" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C233" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D233" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E233" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="234" ht="15.75" customHeight="1">
+      <c r="A234" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B234" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C234" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D234" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E234" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="235" ht="15.75" customHeight="1">
+      <c r="A235" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B235" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C235" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D235" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E235" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="236" ht="15.75" customHeight="1">
+      <c r="A236" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B236" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C236" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D236" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E236" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="237" ht="15.75" customHeight="1">
+      <c r="A237" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B237" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C237" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D237" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E237" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="238" ht="15.75" customHeight="1">
+      <c r="A238" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B238" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C238" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D238" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E238" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="239" ht="15.75" customHeight="1">
+      <c r="A239" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B239" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C239" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D239" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E239" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="240" ht="15.75" customHeight="1">
+      <c r="A240" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B240" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C240" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D240" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E240" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="241" ht="15.75" customHeight="1">
+      <c r="C241" s="16"/>
+      <c r="D241" s="16"/>
+      <c r="E241" s="16"/>
+    </row>
     <row r="242" ht="15.75" customHeight="1"/>
     <row r="243" ht="15.75" customHeight="1"/>
     <row r="244" ht="15.75" customHeight="1"/>
@@ -5613,21 +5919,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>43</v>
@@ -5641,7 +5947,7 @@
         <v>13</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4">
@@ -5660,18 +5966,18 @@
         <v>15</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>54</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7">
@@ -5682,15 +5988,15 @@
         <v>79</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9">
@@ -5701,7 +6007,7 @@
         <v>31</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10">
@@ -5744,7 +6050,7 @@
         <v>55</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15">
@@ -5784,7 +6090,7 @@
         <v>88</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20">
@@ -5808,7 +6114,7 @@
         <v>32</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23">
@@ -5816,7 +6122,7 @@
         <v>116</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24">
@@ -5829,7 +6135,7 @@
     </row>
     <row r="25">
       <c r="A25" s="8" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>59</v>
@@ -5872,7 +6178,7 @@
         <v>134</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31">
@@ -5888,7 +6194,7 @@
         <v>108</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33">
@@ -5909,10 +6215,10 @@
     </row>
     <row r="35">
       <c r="A35" s="8" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
     </row>
     <row r="36">
@@ -5941,7 +6247,7 @@
     </row>
     <row r="39">
       <c r="A39" s="8" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>99</v>
@@ -5949,7 +6255,7 @@
     </row>
     <row r="40">
       <c r="A40" s="8" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>33</v>
@@ -6024,7 +6330,7 @@
         <v>36</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
     </row>
     <row r="50">
@@ -6173,7 +6479,7 @@
     </row>
     <row r="68">
       <c r="D68" s="8" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
     </row>
     <row r="69">
@@ -6188,12 +6494,12 @@
     </row>
     <row r="71">
       <c r="D71" s="8" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
     </row>
     <row r="72">
       <c r="D72" s="8" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
     </row>
     <row r="73">

--- a/The Web.xlsx
+++ b/The Web.xlsx
@@ -3,8 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="RAW data" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Ranking Points" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="RAW data" sheetId="1" r:id="rId5"/>
+    <sheet state="visible" name="Ranking Points" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="215">
   <si>
     <t>from</t>
   </si>
@@ -549,6 +549,36 @@
   </si>
   <si>
     <t xml:space="preserve">Ewan Bennet </t>
+  </si>
+  <si>
+    <t>Kolbrun</t>
+  </si>
+  <si>
+    <t>Imogen Marshall</t>
+  </si>
+  <si>
+    <t>Nick Smith</t>
+  </si>
+  <si>
+    <t>Charlotte Burton</t>
+  </si>
+  <si>
+    <t>Pati</t>
+  </si>
+  <si>
+    <t>Mhairi Ballantyne</t>
+  </si>
+  <si>
+    <t>Laurence Ward</t>
+  </si>
+  <si>
+    <t>Bish</t>
+  </si>
+  <si>
+    <t>Karoline</t>
+  </si>
+  <si>
+    <t>Daisy Rennie</t>
   </si>
   <si>
     <t>Female</t>
@@ -633,7 +663,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -672,8 +702,12 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -734,12 +768,6 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -747,7 +775,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -794,7 +822,15 @@
     <xf borderId="0" fillId="10" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="5" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -809,6 +845,10 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<x18tc:personList xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4831,8 +4871,8 @@
       <c r="B224" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="C224" s="7" t="s">
-        <v>12</v>
+      <c r="C224" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D224" s="10" t="s">
         <v>23</v>
@@ -5069,7 +5109,7 @@
         <v>168</v>
       </c>
       <c r="B238" s="8" t="s">
-        <v>154</v>
+        <v>70</v>
       </c>
       <c r="C238" s="7" t="s">
         <v>12</v>
@@ -5116,22 +5156,226 @@
       </c>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="C241" s="16"/>
-      <c r="D241" s="16"/>
-      <c r="E241" s="16"/>
-    </row>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
+      <c r="A241" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B241" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C241" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D241" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E241" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="242" ht="15.75" customHeight="1">
+      <c r="A242" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B242" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C242" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D242" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E242" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="243" ht="15.75" customHeight="1">
+      <c r="A243" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B243" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C243" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D243" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E243" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="244" ht="15.75" customHeight="1">
+      <c r="A244" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B244" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C244" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D244" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E244" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="245" ht="15.75" customHeight="1">
+      <c r="A245" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="B245" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="C245" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D245" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E245" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="246" ht="15.75" customHeight="1">
+      <c r="A246" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B246" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C246" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D246" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E246" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="247" ht="15.75" customHeight="1">
+      <c r="A247" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B247" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D247" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E247" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="248" ht="15.75" customHeight="1">
+      <c r="A248" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B248" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C248" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D248" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E248" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="249" ht="15.75" customHeight="1">
+      <c r="A249" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B249" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C249" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D249" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E249" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="250" ht="15.75" customHeight="1">
+      <c r="A250" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B250" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D250" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E250" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="251" ht="15.75" customHeight="1">
+      <c r="A251" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B251" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C251" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D251" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E251" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="252" ht="15.75" customHeight="1">
+      <c r="A252" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B252" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C252" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D252" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E252" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="253" ht="15.75" customHeight="1">
+      <c r="A253" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B253" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C253" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D253" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E253" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="254" ht="15.75" customHeight="1"/>
     <row r="255" ht="15.75" customHeight="1"/>
     <row r="256" ht="15.75" customHeight="1"/>
@@ -5919,21 +6163,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>43</v>
@@ -5947,7 +6191,7 @@
         <v>13</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4">
@@ -5966,18 +6210,18 @@
         <v>15</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>54</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7">
@@ -5988,15 +6232,15 @@
         <v>79</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9">
@@ -6007,7 +6251,7 @@
         <v>31</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10">
@@ -6050,7 +6294,7 @@
         <v>55</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15">
@@ -6090,7 +6334,7 @@
         <v>88</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20">
@@ -6114,7 +6358,7 @@
         <v>32</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23">
@@ -6122,7 +6366,7 @@
         <v>116</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24">
@@ -6135,7 +6379,7 @@
     </row>
     <row r="25">
       <c r="A25" s="8" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>59</v>
@@ -6194,7 +6438,7 @@
         <v>108</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33">
@@ -6215,10 +6459,10 @@
     </row>
     <row r="35">
       <c r="A35" s="8" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
     </row>
     <row r="36">
@@ -6247,7 +6491,7 @@
     </row>
     <row r="39">
       <c r="A39" s="8" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>99</v>
@@ -6255,7 +6499,7 @@
     </row>
     <row r="40">
       <c r="A40" s="8" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>33</v>
@@ -6330,7 +6574,7 @@
         <v>36</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
     </row>
     <row r="50">
@@ -6479,7 +6723,7 @@
     </row>
     <row r="68">
       <c r="D68" s="8" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69">
@@ -6494,12 +6738,12 @@
     </row>
     <row r="71">
       <c r="D71" s="8" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="72">
       <c r="D72" s="8" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
     </row>
     <row r="73">

--- a/The Web.xlsx
+++ b/The Web.xlsx
@@ -5,6 +5,7 @@
   <sheets>
     <sheet state="visible" name="RAW data" sheetId="1" r:id="rId5"/>
     <sheet state="visible" name="Ranking Points" sheetId="2" r:id="rId6"/>
+    <sheet state="visible" name="ToDo" sheetId="3" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="218">
   <si>
     <t>from</t>
   </si>
@@ -657,6 +658,15 @@
   </si>
   <si>
     <t>Matt Dailey</t>
+  </si>
+  <si>
+    <t>Automated Submissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Logo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New SEO description </t>
   </si>
 </sst>
 </file>
@@ -775,7 +785,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -825,11 +835,23 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -844,6 +866,10 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -5105,20 +5131,20 @@
       </c>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="A238" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="B238" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C238" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D238" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E238" s="9" t="s">
-        <v>20</v>
+      <c r="A238" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B238" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C238" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D238" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E238" s="18" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="239" ht="15.75" customHeight="1">
@@ -5224,19 +5250,19 @@
       </c>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="A245" s="16" t="s">
+      <c r="A245" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="B245" s="16" t="s">
+      <c r="B245" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="C245" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D245" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E245" s="18" t="s">
+      <c r="C245" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D245" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E245" s="21" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5376,7 +5402,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1">
+      <c r="C254" s="22"/>
+      <c r="D254" s="22"/>
+      <c r="E254" s="22"/>
+    </row>
     <row r="255" ht="15.75" customHeight="1"/>
     <row r="256" ht="15.75" customHeight="1"/>
     <row r="257" ht="15.75" customHeight="1"/>
@@ -6769,4 +6799,37 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="19.25"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/The Web.xlsx
+++ b/The Web.xlsx
@@ -6,6 +6,7 @@
     <sheet state="visible" name="RAW data" sheetId="1" r:id="rId5"/>
     <sheet state="visible" name="Ranking Points" sheetId="2" r:id="rId6"/>
     <sheet state="visible" name="ToDo" sheetId="3" r:id="rId7"/>
+    <sheet state="visible" name="Optimum Roster (sam)" sheetId="4" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="237">
   <si>
     <t>from</t>
   </si>
@@ -582,6 +583,12 @@
     <t>Daisy Rennie</t>
   </si>
   <si>
+    <t xml:space="preserve">Isaac Hunter </t>
+  </si>
+  <si>
+    <t>Bezza Pezza</t>
+  </si>
+  <si>
     <t>Female</t>
   </si>
   <si>
@@ -667,6 +674,57 @@
   </si>
   <si>
     <t xml:space="preserve">New SEO description </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loosy </t>
+  </si>
+  <si>
+    <t>Heidi</t>
+  </si>
+  <si>
+    <t>KFC</t>
+  </si>
+  <si>
+    <t>50cent</t>
+  </si>
+  <si>
+    <t>Sazzle C</t>
+  </si>
+  <si>
+    <t>Eilidh</t>
+  </si>
+  <si>
+    <t>Kirsty</t>
+  </si>
+  <si>
+    <t>Tallulah</t>
+  </si>
+  <si>
+    <t>Anya</t>
+  </si>
+  <si>
+    <t>Alex crawshaw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gyatt Wilson </t>
+  </si>
+  <si>
+    <t>Pippa</t>
+  </si>
+  <si>
+    <t>Gillette pieters</t>
+  </si>
+  <si>
+    <t>Ellen crombie</t>
+  </si>
+  <si>
+    <t>Freya sheps</t>
+  </si>
+  <si>
+    <t>Claire stans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maja thomson </t>
   </si>
 </sst>
 </file>
@@ -785,7 +843,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -850,9 +908,6 @@
     <xf borderId="0" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -870,6 +925,10 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -5403,13 +5462,73 @@
       </c>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="C254" s="22"/>
-      <c r="D254" s="22"/>
-      <c r="E254" s="22"/>
-    </row>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
+      <c r="A254" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B254" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D254" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E254" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="255" ht="15.75" customHeight="1">
+      <c r="A255" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B255" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C255" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D255" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E255" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="256" ht="15.75" customHeight="1">
+      <c r="A256" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B256" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C256" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D256" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E256" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="257" ht="15.75" customHeight="1">
+      <c r="A257" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B257" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C257" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D257" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E257" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="258" ht="15.75" customHeight="1"/>
     <row r="259" ht="15.75" customHeight="1"/>
     <row r="260" ht="15.75" customHeight="1"/>
@@ -6193,21 +6312,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>43</v>
@@ -6221,7 +6340,7 @@
         <v>13</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4">
@@ -6240,18 +6359,18 @@
         <v>15</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>54</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7">
@@ -6262,15 +6381,15 @@
         <v>79</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9">
@@ -6281,7 +6400,7 @@
         <v>31</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10">
@@ -6324,7 +6443,7 @@
         <v>55</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15">
@@ -6364,7 +6483,7 @@
         <v>88</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20">
@@ -6388,7 +6507,7 @@
         <v>32</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23">
@@ -6396,7 +6515,7 @@
         <v>116</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24">
@@ -6409,7 +6528,7 @@
     </row>
     <row r="25">
       <c r="A25" s="8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>59</v>
@@ -6468,7 +6587,7 @@
         <v>108</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="33">
@@ -6489,10 +6608,10 @@
     </row>
     <row r="35">
       <c r="A35" s="8" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36">
@@ -6521,7 +6640,7 @@
     </row>
     <row r="39">
       <c r="A39" s="8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>99</v>
@@ -6529,7 +6648,7 @@
     </row>
     <row r="40">
       <c r="A40" s="8" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>33</v>
@@ -6604,7 +6723,7 @@
         <v>36</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="50">
@@ -6753,7 +6872,7 @@
     </row>
     <row r="68">
       <c r="D68" s="8" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="69">
@@ -6768,12 +6887,12 @@
     </row>
     <row r="71">
       <c r="D71" s="8" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72">
       <c r="D72" s="8" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73">
@@ -6816,17 +6935,200 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>217</v>
+        <v>219</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/The Web.xlsx
+++ b/The Web.xlsx
@@ -583,97 +583,97 @@
     <t>Daisy Rennie</t>
   </si>
   <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Ranking (-100-&gt;+100)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Male </t>
+  </si>
+  <si>
+    <t>Lizzie Stansfield</t>
+  </si>
+  <si>
+    <t>Best 3 links to count</t>
+  </si>
+  <si>
+    <t>Shag: x10</t>
+  </si>
+  <si>
+    <t>Jess Ensoll</t>
+  </si>
+  <si>
+    <t>Dated: x5</t>
+  </si>
+  <si>
+    <t>Pulled: x2</t>
+  </si>
+  <si>
+    <t>Isla Calvert</t>
+  </si>
+  <si>
+    <t>Sam Griffin</t>
+  </si>
+  <si>
+    <t>note: if a man/woman is clapped he/she will have a negative ranking and this could therefore lead to someone having negative ranking points</t>
+  </si>
+  <si>
+    <t>Angus Wright</t>
+  </si>
+  <si>
+    <t>Finlay RD</t>
+  </si>
+  <si>
+    <t>Louis McMillan</t>
+  </si>
+  <si>
+    <t>Thomas Laraia</t>
+  </si>
+  <si>
+    <t>Alison Bell</t>
+  </si>
+  <si>
+    <t>Ewan Patton</t>
+  </si>
+  <si>
+    <t>Rachael Brown</t>
+  </si>
+  <si>
+    <t>Herbie</t>
+  </si>
+  <si>
+    <t>Georgia Ledingham</t>
+  </si>
+  <si>
+    <t>Nea Shingler</t>
+  </si>
+  <si>
+    <t>Blayne Wright</t>
+  </si>
+  <si>
+    <t>Andrew Bunting</t>
+  </si>
+  <si>
+    <t>Barney Steventon-Barnes</t>
+  </si>
+  <si>
+    <t>Matt Dailey</t>
+  </si>
+  <si>
+    <t>Automated Submissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Logo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New SEO description </t>
+  </si>
+  <si>
     <t xml:space="preserve">Isaac Hunter </t>
   </si>
   <si>
     <t>Bezza Pezza</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Ranking (-100-&gt;+100)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Male </t>
-  </si>
-  <si>
-    <t>Lizzie Stansfield</t>
-  </si>
-  <si>
-    <t>Best 3 links to count</t>
-  </si>
-  <si>
-    <t>Shag: x10</t>
-  </si>
-  <si>
-    <t>Jess Ensoll</t>
-  </si>
-  <si>
-    <t>Dated: x5</t>
-  </si>
-  <si>
-    <t>Pulled: x2</t>
-  </si>
-  <si>
-    <t>Isla Calvert</t>
-  </si>
-  <si>
-    <t>Sam Griffin</t>
-  </si>
-  <si>
-    <t>note: if a man/woman is clapped he/she will have a negative ranking and this could therefore lead to someone having negative ranking points</t>
-  </si>
-  <si>
-    <t>Angus Wright</t>
-  </si>
-  <si>
-    <t>Finlay RD</t>
-  </si>
-  <si>
-    <t>Louis McMillan</t>
-  </si>
-  <si>
-    <t>Thomas Laraia</t>
-  </si>
-  <si>
-    <t>Alison Bell</t>
-  </si>
-  <si>
-    <t>Ewan Patton</t>
-  </si>
-  <si>
-    <t>Rachael Brown</t>
-  </si>
-  <si>
-    <t>Herbie</t>
-  </si>
-  <si>
-    <t>Georgia Ledingham</t>
-  </si>
-  <si>
-    <t>Nea Shingler</t>
-  </si>
-  <si>
-    <t>Blayne Wright</t>
-  </si>
-  <si>
-    <t>Andrew Bunting</t>
-  </si>
-  <si>
-    <t>Barney Steventon-Barnes</t>
-  </si>
-  <si>
-    <t>Matt Dailey</t>
-  </si>
-  <si>
-    <t>Automated Submissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Logo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">New SEO description </t>
   </si>
   <si>
     <t xml:space="preserve">Loosy </t>
@@ -843,7 +843,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -900,6 +900,21 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -5462,72 +5477,24 @@
       </c>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="A254" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="B254" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C254" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D254" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E254" s="10" t="s">
-        <v>23</v>
-      </c>
+      <c r="C254" s="4"/>
+      <c r="D254" s="10"/>
+      <c r="E254" s="10"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="A255" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B255" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C255" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D255" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E255" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="C255" s="4"/>
+      <c r="D255" s="5"/>
+      <c r="E255" s="5"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="A256" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="B256" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C256" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D256" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E256" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="C256" s="4"/>
+      <c r="D256" s="10"/>
+      <c r="E256" s="5"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="A257" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="B257" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C257" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D257" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E257" s="9" t="s">
-        <v>20</v>
-      </c>
+      <c r="C257" s="7"/>
+      <c r="D257" s="10"/>
+      <c r="E257" s="9"/>
     </row>
     <row r="258" ht="15.75" customHeight="1"/>
     <row r="259" ht="15.75" customHeight="1"/>
@@ -6312,21 +6279,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>193</v>
-      </c>
       <c r="E1" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>43</v>
@@ -6340,7 +6307,7 @@
         <v>13</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4">
@@ -6359,18 +6326,18 @@
         <v>15</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>54</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7">
@@ -6381,15 +6348,15 @@
         <v>79</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9">
@@ -6400,7 +6367,7 @@
         <v>31</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10">
@@ -6443,7 +6410,7 @@
         <v>55</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15">
@@ -6483,7 +6450,7 @@
         <v>88</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20">
@@ -6507,7 +6474,7 @@
         <v>32</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23">
@@ -6515,7 +6482,7 @@
         <v>116</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24">
@@ -6528,7 +6495,7 @@
     </row>
     <row r="25">
       <c r="A25" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>59</v>
@@ -6587,7 +6554,7 @@
         <v>108</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33">
@@ -6608,10 +6575,10 @@
     </row>
     <row r="35">
       <c r="A35" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="36">
@@ -6640,7 +6607,7 @@
     </row>
     <row r="39">
       <c r="A39" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>99</v>
@@ -6648,7 +6615,7 @@
     </row>
     <row r="40">
       <c r="A40" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>33</v>
@@ -6723,7 +6690,7 @@
         <v>36</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="50">
@@ -6872,7 +6839,7 @@
     </row>
     <row r="68">
       <c r="D68" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69">
@@ -6887,12 +6854,12 @@
     </row>
     <row r="71">
       <c r="D71" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="72">
       <c r="D72" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="73">
@@ -6935,17 +6902,85 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="16" t="s">
         <v>219</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/The Web.xlsx
+++ b/The Web.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="237">
   <si>
     <t>from</t>
   </si>
@@ -571,18 +571,24 @@
     <t>Mhairi Ballantyne</t>
   </si>
   <si>
+    <t>Bezza Pezza</t>
+  </si>
+  <si>
+    <t>Bish</t>
+  </si>
+  <si>
+    <t>Karoline</t>
+  </si>
+  <si>
     <t>Laurence Ward</t>
   </si>
   <si>
-    <t>Bish</t>
-  </si>
-  <si>
-    <t>Karoline</t>
-  </si>
-  <si>
     <t>Daisy Rennie</t>
   </si>
   <si>
+    <t xml:space="preserve">Isaac Hunter </t>
+  </si>
+  <si>
     <t>Female</t>
   </si>
   <si>
@@ -668,12 +674,6 @@
   </si>
   <si>
     <t xml:space="preserve">New SEO description </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isaac Hunter </t>
-  </si>
-  <si>
-    <t>Bezza Pezza</t>
   </si>
   <si>
     <t xml:space="preserve">Loosy </t>
@@ -843,7 +843,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="23">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -908,20 +908,8 @@
     <xf borderId="0" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2618,8 +2606,8 @@
       <c r="B86" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C86" s="6" t="s">
-        <v>10</v>
+      <c r="C86" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>8</v>
@@ -5413,13 +5401,13 @@
         <v>185</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="C250" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D250" s="5" t="s">
-        <v>8</v>
+        <v>183</v>
+      </c>
+      <c r="C250" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D250" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="E250" s="9" t="s">
         <v>20</v>
@@ -5461,10 +5449,10 @@
     </row>
     <row r="253" ht="15.75" customHeight="1">
       <c r="A253" s="8" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C253" s="6" t="s">
         <v>10</v>
@@ -5477,24 +5465,60 @@
       </c>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="C254" s="4"/>
-      <c r="D254" s="10"/>
-      <c r="E254" s="10"/>
+      <c r="A254" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B254" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D254" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E254" s="10" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="C255" s="4"/>
-      <c r="D255" s="5"/>
-      <c r="E255" s="5"/>
+      <c r="A255" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B255" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C255" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D255" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E255" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="C256" s="4"/>
-      <c r="D256" s="10"/>
-      <c r="E256" s="5"/>
+      <c r="A256" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B256" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C256" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D256" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E256" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="C257" s="7"/>
-      <c r="D257" s="10"/>
-      <c r="E257" s="9"/>
+      <c r="C257" s="22"/>
+      <c r="D257" s="22"/>
+      <c r="E257" s="22"/>
     </row>
     <row r="258" ht="15.75" customHeight="1"/>
     <row r="259" ht="15.75" customHeight="1"/>
@@ -6279,21 +6303,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>43</v>
@@ -6307,7 +6331,7 @@
         <v>13</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4">
@@ -6326,18 +6350,18 @@
         <v>15</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>54</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7">
@@ -6348,15 +6372,15 @@
         <v>79</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9">
@@ -6367,7 +6391,7 @@
         <v>31</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10">
@@ -6410,7 +6434,7 @@
         <v>55</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15">
@@ -6450,7 +6474,7 @@
         <v>88</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20">
@@ -6474,7 +6498,7 @@
         <v>32</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23">
@@ -6482,7 +6506,7 @@
         <v>116</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24">
@@ -6495,7 +6519,7 @@
     </row>
     <row r="25">
       <c r="A25" s="8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>59</v>
@@ -6554,7 +6578,7 @@
         <v>108</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="33">
@@ -6575,10 +6599,10 @@
     </row>
     <row r="35">
       <c r="A35" s="8" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36">
@@ -6607,7 +6631,7 @@
     </row>
     <row r="39">
       <c r="A39" s="8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>99</v>
@@ -6615,7 +6639,7 @@
     </row>
     <row r="40">
       <c r="A40" s="8" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>33</v>
@@ -6690,7 +6714,7 @@
         <v>36</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="50">
@@ -6839,7 +6863,7 @@
     </row>
     <row r="68">
       <c r="D68" s="8" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="69">
@@ -6854,12 +6878,12 @@
     </row>
     <row r="71">
       <c r="D71" s="8" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72">
       <c r="D72" s="8" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73">
@@ -6902,85 +6926,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="16" t="s">
         <v>219</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/The Web.xlsx
+++ b/The Web.xlsx
@@ -584,6 +584,9 @@
     <t xml:space="preserve">Isaac Hunter </t>
   </si>
   <si>
+    <t>Liam Edwards</t>
+  </si>
+  <si>
     <t>Female</t>
   </si>
   <si>
@@ -642,9 +645,6 @@
   </si>
   <si>
     <t>Herbie</t>
-  </si>
-  <si>
-    <t>Liam Edwards</t>
   </si>
   <si>
     <t>Georgia Ledingham</t>
@@ -776,7 +776,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -835,6 +835,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEA4335"/>
+        <bgColor rgb="FFEA4335"/>
       </patternFill>
     </fill>
     <fill>
@@ -918,7 +924,7 @@
     <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -933,7 +939,7 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -5466,46 +5472,96 @@
       </c>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="A252" s="11"/>
-      <c r="B252" s="11"/>
-      <c r="C252" s="15"/>
-      <c r="D252" s="14"/>
-      <c r="E252" s="13"/>
+      <c r="A252" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B252" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C252" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D252" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E252" s="13" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="A253" s="11"/>
-      <c r="B253" s="11"/>
-      <c r="C253" s="17"/>
-      <c r="D253" s="14"/>
-      <c r="E253" s="13"/>
+      <c r="A253" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B253" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C253" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D253" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E253" s="13" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="A254" s="11"/>
-      <c r="B254" s="11"/>
-      <c r="C254" s="17"/>
-      <c r="D254" s="13"/>
-      <c r="E254" s="13"/>
+      <c r="A254" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B254" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C254" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D254" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E254" s="13" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="A255" s="11"/>
-      <c r="B255" s="11"/>
-      <c r="C255" s="15"/>
-      <c r="D255" s="13"/>
-      <c r="E255" s="13"/>
+      <c r="A255" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B255" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="C255" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D255" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E255" s="13" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="A256" s="11"/>
-      <c r="B256" s="11"/>
-      <c r="C256" s="15"/>
-      <c r="D256" s="13"/>
-      <c r="E256" s="13"/>
+      <c r="A256" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B256" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C256" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D256" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E256" s="13" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="257" ht="15.75" customHeight="1">
       <c r="A257" s="11"/>
       <c r="B257" s="11"/>
       <c r="C257" s="23"/>
-      <c r="D257" s="23"/>
-      <c r="E257" s="23"/>
+      <c r="D257" s="13"/>
+      <c r="E257" s="13"/>
     </row>
     <row r="258" ht="15.75" customHeight="1"/>
     <row r="259" ht="15.75" customHeight="1"/>
@@ -6290,21 +6346,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>191</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>43</v>
@@ -6318,7 +6374,7 @@
         <v>13</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4">
@@ -6337,18 +6393,18 @@
         <v>15</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>54</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7">
@@ -6359,15 +6415,15 @@
         <v>79</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9">
@@ -6378,7 +6434,7 @@
         <v>31</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10">
@@ -6421,7 +6477,7 @@
         <v>55</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15">
@@ -6461,7 +6517,7 @@
         <v>88</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20">
@@ -6485,7 +6541,7 @@
         <v>32</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23">
@@ -6493,7 +6549,7 @@
         <v>116</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24">
@@ -6506,7 +6562,7 @@
     </row>
     <row r="25">
       <c r="A25" s="8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>59</v>
@@ -6565,7 +6621,7 @@
         <v>108</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33">
@@ -6586,10 +6642,10 @@
     </row>
     <row r="35">
       <c r="A35" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36">
@@ -6605,7 +6661,7 @@
         <v>49</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38">
@@ -7125,106 +7181,56 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>20</v>
-      </c>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2">
       <c r="A2" s="11" t="s">
-        <v>65</v>
+        <v>189</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>8</v>
+        <v>236</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>20</v>
-      </c>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
     </row>
     <row r="4">
-      <c r="A4" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>20</v>
-      </c>
+      <c r="A4" s="20"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>20</v>
-      </c>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
     </row>
     <row r="6">
-      <c r="A6" s="27" t="s">
-        <v>209</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
     </row>
     <row r="7">
       <c r="A7" s="11"/>
